--- a/web/pns/ART_Daily_Form_v990_2023_10_26_.xlsx
+++ b/web/pns/ART_Daily_Form_v990_2023_10_26_.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="CC71" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7815" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7815" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="pmtct" sheetId="13" r:id="rId1"/>
@@ -4113,6 +4113,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4152,96 +4240,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4252,11 +4255,8 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12754,12 +12754,12 @@
   </sheetPr>
   <dimension ref="A1:CB102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="71" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="71" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AC17" sqref="AC16:AC17"/>
       <selection pane="topRight" activeCell="AC17" sqref="AC16:AC17"/>
       <selection pane="bottomLeft" activeCell="AC17" sqref="AC16:AC17"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
@@ -12904,7 +12904,7 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="139" t="s">
         <v>902</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -12995,7 +12995,7 @@
       <c r="BI2" s="74"/>
     </row>
     <row r="3" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A3" s="112"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -13024,15 +13024,15 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:80">
-      <c r="A4" s="112"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -13051,42 +13051,42 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="38"/>
-      <c r="X4" s="116" t="s">
+      <c r="X4" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="117"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="145"/>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="118" t="str">
+      <c r="C5" s="146" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149" t="s">
         <v>806</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="123"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="151"/>
       <c r="X5" s="41" t="s">
         <v>4</v>
       </c>
@@ -13103,88 +13103,88 @@
       <c r="B6" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
     </row>
     <row r="7" spans="1:80" s="48" customFormat="1">
       <c r="A7" s="135" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="136"/>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="126" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="126" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="126" t="s">
+      <c r="J7" s="128"/>
+      <c r="K7" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="126" t="s">
+      <c r="L7" s="128"/>
+      <c r="M7" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="126" t="s">
+      <c r="N7" s="134"/>
+      <c r="O7" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="126" t="s">
+      <c r="P7" s="128"/>
+      <c r="Q7" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="133"/>
-      <c r="S7" s="125" t="s">
+      <c r="R7" s="134"/>
+      <c r="S7" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="T7" s="125"/>
-      <c r="U7" s="126" t="s">
+      <c r="T7" s="130"/>
+      <c r="U7" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="V7" s="134"/>
-      <c r="W7" s="125" t="s">
+      <c r="V7" s="128"/>
+      <c r="W7" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125" t="s">
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="142" t="s">
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="121" t="s">
         <v>216</v>
       </c>
       <c r="AB7" s="46"/>
@@ -13316,7 +13316,7 @@
       <c r="Z8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="143"/>
+      <c r="AA8" s="122"/>
       <c r="AB8" s="46"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="47"/>
@@ -13375,34 +13375,34 @@
       <c r="A9" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="129"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="133"/>
       <c r="AB9" s="53" t="s">
         <v>207</v>
       </c>
@@ -13755,34 +13755,34 @@
       <c r="A17" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="132"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="117"/>
       <c r="AB17" s="58" t="s">
         <v>18</v>
       </c>
@@ -13914,34 +13914,34 @@
       <c r="A21" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="132"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="117"/>
       <c r="AB21" s="60" t="s">
         <v>17</v>
       </c>
@@ -14401,34 +14401,34 @@
       <c r="A33" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="132"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="117"/>
       <c r="AB33" s="60" t="s">
         <v>15</v>
       </c>
@@ -14519,34 +14519,34 @@
       <c r="A36" s="102" t="s">
         <v>758</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="115" t="s">
         <v>757</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="131"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="131"/>
-      <c r="X36" s="131"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="131"/>
-      <c r="AA36" s="132"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="117"/>
       <c r="AB36" s="56" t="s">
         <v>758</v>
       </c>
@@ -14786,7 +14786,7 @@
       <c r="Y42" s="97"/>
       <c r="Z42" s="97"/>
       <c r="AA42" s="55" t="str">
-        <f t="shared" ref="AA42:AA46" si="8">IF(SUMPRODUCT(--(C42:Z42&lt;&gt;""))=0,"",SUM(C42:Z42))</f>
+        <f t="shared" ref="AA42:AA52" si="8">IF(SUMPRODUCT(--(C42:Z42&lt;&gt;""))=0,"",SUM(C42:Z42))</f>
         <v/>
       </c>
       <c r="AB42" s="57">
@@ -15038,7 +15038,10 @@
       <c r="X47" s="97"/>
       <c r="Y47" s="97"/>
       <c r="Z47" s="97"/>
-      <c r="AA47" s="55"/>
+      <c r="AA47" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="AB47" s="57">
         <v>92</v>
       </c>
@@ -15077,7 +15080,7 @@
       <c r="Y48" s="97"/>
       <c r="Z48" s="97"/>
       <c r="AA48" s="55" t="str">
-        <f t="shared" ref="AA48" si="11">IF(SUMPRODUCT(--(C48:Z48&lt;&gt;""))=0,"",SUM(C48:Z48))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB48" s="57">
@@ -15118,7 +15121,7 @@
       <c r="Y49" s="97"/>
       <c r="Z49" s="97"/>
       <c r="AA49" s="55" t="str">
-        <f t="shared" ref="AA49:AA51" si="12">IF(SUMPRODUCT(--(C49:Z49&lt;&gt;""))=0,"",SUM(C49:Z49))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB49" s="57">
@@ -15159,7 +15162,7 @@
       <c r="Y50" s="97"/>
       <c r="Z50" s="97"/>
       <c r="AA50" s="55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB50" s="57">
@@ -15200,7 +15203,7 @@
       <c r="Y51" s="97"/>
       <c r="Z51" s="97"/>
       <c r="AA51" s="55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB51" s="57">
@@ -15240,7 +15243,7 @@
       <c r="Y52" s="97"/>
       <c r="Z52" s="97"/>
       <c r="AA52" s="55" t="str">
-        <f t="shared" ref="AA52" si="13">IF(SUMPRODUCT(--(C52:Z52&lt;&gt;""))=0,"",SUM(C52:Z52))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB52" s="57">
@@ -15252,34 +15255,34 @@
       <c r="A53" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="115" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="131"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
-      <c r="S53" s="131"/>
-      <c r="T53" s="131"/>
-      <c r="U53" s="131"/>
-      <c r="V53" s="131"/>
-      <c r="W53" s="131"/>
-      <c r="X53" s="131"/>
-      <c r="Y53" s="131"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="132"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="116"/>
+      <c r="Z53" s="116"/>
+      <c r="AA53" s="117"/>
       <c r="AB53" s="60" t="s">
         <v>0</v>
       </c>
@@ -15317,7 +15320,7 @@
       <c r="Y54" s="80"/>
       <c r="Z54" s="80"/>
       <c r="AA54" s="55" t="str">
-        <f t="shared" ref="AA54:AA57" si="14">IF(SUMPRODUCT(--(C54:Z54&lt;&gt;""))=0,"",SUM(C54:Z54))</f>
+        <f t="shared" ref="AA54:AA57" si="11">IF(SUMPRODUCT(--(C54:Z54&lt;&gt;""))=0,"",SUM(C54:Z54))</f>
         <v/>
       </c>
       <c r="AB54" s="57">
@@ -15327,7 +15330,7 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="102">
-        <f t="shared" ref="A55:A58" si="15">IF(ISERROR((A54+1)),"",(A54+1))</f>
+        <f t="shared" ref="A55:A58" si="12">IF(ISERROR((A54+1)),"",(A54+1))</f>
         <v>40</v>
       </c>
       <c r="B55" s="65" t="s">
@@ -15358,7 +15361,7 @@
       <c r="Y55" s="69"/>
       <c r="Z55" s="69"/>
       <c r="AA55" s="55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB55" s="57">
@@ -15368,7 +15371,7 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="B56" s="65" t="s">
@@ -15399,7 +15402,7 @@
       <c r="Y56" s="69"/>
       <c r="Z56" s="69"/>
       <c r="AA56" s="55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB56" s="57">
@@ -15409,7 +15412,7 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="B57" s="65" t="s">
@@ -15440,7 +15443,7 @@
       <c r="Y57" s="69"/>
       <c r="Z57" s="69"/>
       <c r="AA57" s="55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB57" s="57">
@@ -15450,7 +15453,7 @@
     </row>
     <row r="58" spans="1:29" ht="12.75" thickBot="1">
       <c r="A58" s="102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="B58" s="65" t="s">
@@ -15481,7 +15484,7 @@
       <c r="Y58" s="69"/>
       <c r="Z58" s="69"/>
       <c r="AA58" s="55" t="str">
-        <f t="shared" ref="AA58" si="16">IF(SUMPRODUCT(--(C58:Z58&lt;&gt;""))=0,"",SUM(C58:Z58))</f>
+        <f t="shared" ref="AA58" si="13">IF(SUMPRODUCT(--(C58:Z58&lt;&gt;""))=0,"",SUM(C58:Z58))</f>
         <v/>
       </c>
       <c r="AB58" s="57">
@@ -15493,34 +15496,34 @@
       <c r="A59" s="102" t="s">
         <v>801</v>
       </c>
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="115" t="s">
         <v>800</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
-      <c r="O59" s="131"/>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="131"/>
-      <c r="R59" s="131"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="131"/>
-      <c r="U59" s="131"/>
-      <c r="V59" s="131"/>
-      <c r="W59" s="131"/>
-      <c r="X59" s="131"/>
-      <c r="Y59" s="131"/>
-      <c r="Z59" s="131"/>
-      <c r="AA59" s="132"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="116"/>
+      <c r="T59" s="116"/>
+      <c r="U59" s="116"/>
+      <c r="V59" s="116"/>
+      <c r="W59" s="116"/>
+      <c r="X59" s="116"/>
+      <c r="Y59" s="116"/>
+      <c r="Z59" s="116"/>
+      <c r="AA59" s="117"/>
       <c r="AB59" s="56" t="s">
         <v>801</v>
       </c>
@@ -15558,7 +15561,7 @@
       <c r="Y60" s="80"/>
       <c r="Z60" s="79"/>
       <c r="AA60" s="55" t="str">
-        <f t="shared" ref="AA60:AA64" si="17">IF(SUMPRODUCT(--(C60:Z60&lt;&gt;""))=0,"",SUM(C60:Z60))</f>
+        <f t="shared" ref="AA60:AA64" si="14">IF(SUMPRODUCT(--(C60:Z60&lt;&gt;""))=0,"",SUM(C60:Z60))</f>
         <v/>
       </c>
       <c r="AB60" s="57">
@@ -15568,7 +15571,7 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="102">
-        <f t="shared" ref="A61:A63" si="18">IF(ISERROR((A60+1)),"",(A60+1))</f>
+        <f t="shared" ref="A61:A63" si="15">IF(ISERROR((A60+1)),"",(A60+1))</f>
         <v>45</v>
       </c>
       <c r="B61" s="65" t="s">
@@ -15599,7 +15602,7 @@
       <c r="Y61" s="69"/>
       <c r="Z61" s="71"/>
       <c r="AA61" s="55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AB61" s="57">
@@ -15609,7 +15612,7 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -15640,7 +15643,7 @@
       <c r="Y62" s="69"/>
       <c r="Z62" s="71"/>
       <c r="AA62" s="55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AB62" s="57">
@@ -15650,7 +15653,7 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="B63" s="65" t="s">
@@ -15681,7 +15684,7 @@
       <c r="Y63" s="69"/>
       <c r="Z63" s="71"/>
       <c r="AA63" s="55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AB63" s="57">
@@ -15722,7 +15725,7 @@
       <c r="Y64" s="69"/>
       <c r="Z64" s="71"/>
       <c r="AA64" s="55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AB64" s="57">
@@ -15737,38 +15740,38 @@
       <c r="B65" s="108" t="s">
         <v>809</v>
       </c>
-      <c r="C65" s="150" t="str">
+      <c r="C65" s="113" t="str">
         <f>AC65</f>
         <v/>
       </c>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="150"/>
-      <c r="N65" s="150"/>
-      <c r="O65" s="150"/>
-      <c r="P65" s="150"/>
-      <c r="Q65" s="150"/>
-      <c r="R65" s="150"/>
-      <c r="S65" s="150"/>
-      <c r="T65" s="150"/>
-      <c r="U65" s="150"/>
-      <c r="V65" s="150"/>
-      <c r="W65" s="150"/>
-      <c r="X65" s="150"/>
-      <c r="Y65" s="150"/>
-      <c r="Z65" s="150"/>
-      <c r="AA65" s="151"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="113"/>
+      <c r="T65" s="113"/>
+      <c r="U65" s="113"/>
+      <c r="V65" s="113"/>
+      <c r="W65" s="113"/>
+      <c r="X65" s="113"/>
+      <c r="Y65" s="113"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="114"/>
       <c r="AB65" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="AC65" s="148" t="str">
+      <c r="AC65" s="111" t="str">
         <f>CONCATENATE(AD65)</f>
         <v/>
       </c>
@@ -15815,7 +15818,7 @@
       <c r="AB66" s="57">
         <v>50</v>
       </c>
-      <c r="AC66" s="148"/>
+      <c r="AC66" s="111"/>
     </row>
     <row r="67" spans="1:30" ht="15" customHeight="1">
       <c r="A67" s="102">
@@ -15850,13 +15853,13 @@
       <c r="Y67" s="80"/>
       <c r="Z67" s="79"/>
       <c r="AA67" s="55">
-        <f t="shared" ref="AA67:AA74" si="19">IF(SUMPRODUCT(--(C67:Z67&lt;&gt;""))=0,0,SUM(C67:Z67))</f>
+        <f t="shared" ref="AA67:AA74" si="16">IF(SUMPRODUCT(--(C67:Z67&lt;&gt;""))=0,0,SUM(C67:Z67))</f>
         <v>0</v>
       </c>
       <c r="AB67" s="57">
         <v>94</v>
       </c>
-      <c r="AC67" s="148"/>
+      <c r="AC67" s="111"/>
     </row>
     <row r="68" spans="1:30" ht="15" customHeight="1">
       <c r="A68" s="102">
@@ -15891,13 +15894,13 @@
       <c r="Y68" s="80"/>
       <c r="Z68" s="79"/>
       <c r="AA68" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB68" s="57">
         <v>93</v>
       </c>
-      <c r="AC68" s="149"/>
+      <c r="AC68" s="112"/>
     </row>
     <row r="69" spans="1:30" ht="15" customHeight="1">
       <c r="A69" s="102">
@@ -15932,17 +15935,17 @@
       <c r="Y69" s="80"/>
       <c r="Z69" s="79"/>
       <c r="AA69" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB69" s="57">
         <v>95</v>
       </c>
-      <c r="AC69" s="149"/>
+      <c r="AC69" s="112"/>
     </row>
     <row r="70" spans="1:30" ht="15" customHeight="1">
       <c r="A70" s="102">
-        <f t="shared" ref="A70:A75" si="20">IF(ISERROR((A69+1)),"",(A69+1))</f>
+        <f t="shared" ref="A70:A75" si="17">IF(ISERROR((A69+1)),"",(A69+1))</f>
         <v>53</v>
       </c>
       <c r="B70" s="65" t="s">
@@ -16000,17 +16003,17 @@
       </c>
       <c r="Z70" s="79"/>
       <c r="AA70" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB70" s="57">
         <v>85</v>
       </c>
-      <c r="AC70" s="149"/>
+      <c r="AC70" s="112"/>
     </row>
     <row r="71" spans="1:30" ht="11.25" customHeight="1">
       <c r="A71" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="B71" s="65" t="s">
@@ -16041,17 +16044,17 @@
       <c r="Y71" s="69"/>
       <c r="Z71" s="71"/>
       <c r="AA71" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB71" s="57">
         <v>51</v>
       </c>
-      <c r="AC71" s="149"/>
+      <c r="AC71" s="112"/>
     </row>
     <row r="72" spans="1:30" ht="15" customHeight="1">
       <c r="A72" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="B72" s="65" t="s">
@@ -16082,17 +16085,17 @@
       <c r="Y72" s="69"/>
       <c r="Z72" s="71"/>
       <c r="AA72" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB72" s="57">
         <v>52</v>
       </c>
-      <c r="AC72" s="149"/>
+      <c r="AC72" s="112"/>
     </row>
     <row r="73" spans="1:30" ht="15" customHeight="1">
       <c r="A73" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="B73" s="105" t="s">
@@ -16123,17 +16126,17 @@
       <c r="Y73" s="79"/>
       <c r="Z73" s="79"/>
       <c r="AA73" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB73" s="57">
         <v>89</v>
       </c>
-      <c r="AC73" s="149"/>
+      <c r="AC73" s="112"/>
     </row>
     <row r="74" spans="1:30" ht="11.25" customHeight="1">
       <c r="A74" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="B74" s="105" t="s">
@@ -16164,17 +16167,17 @@
       <c r="Y74" s="69"/>
       <c r="Z74" s="71"/>
       <c r="AA74" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB74" s="57">
         <v>90</v>
       </c>
-      <c r="AC74" s="149"/>
+      <c r="AC74" s="112"/>
     </row>
     <row r="75" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="B75" s="105" t="s">
@@ -16211,44 +16214,44 @@
       <c r="AB75" s="57">
         <v>91</v>
       </c>
-      <c r="AC75" s="149"/>
+      <c r="AC75" s="112"/>
     </row>
     <row r="76" spans="1:30" ht="15.75" thickBot="1">
       <c r="A76" s="102" t="s">
         <v>818</v>
       </c>
-      <c r="B76" s="147" t="s">
+      <c r="B76" s="126" t="s">
         <v>820</v>
       </c>
-      <c r="C76" s="131"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="131"/>
-      <c r="G76" s="131"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
-      <c r="O76" s="131"/>
-      <c r="P76" s="131"/>
-      <c r="Q76" s="131"/>
-      <c r="R76" s="131"/>
-      <c r="S76" s="131"/>
-      <c r="T76" s="131"/>
-      <c r="U76" s="131"/>
-      <c r="V76" s="131"/>
-      <c r="W76" s="131"/>
-      <c r="X76" s="131"/>
-      <c r="Y76" s="131"/>
-      <c r="Z76" s="131"/>
-      <c r="AA76" s="132"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="116"/>
+      <c r="N76" s="116"/>
+      <c r="O76" s="116"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
+      <c r="R76" s="116"/>
+      <c r="S76" s="116"/>
+      <c r="T76" s="116"/>
+      <c r="U76" s="116"/>
+      <c r="V76" s="116"/>
+      <c r="W76" s="116"/>
+      <c r="X76" s="116"/>
+      <c r="Y76" s="116"/>
+      <c r="Z76" s="116"/>
+      <c r="AA76" s="117"/>
       <c r="AB76" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="AC76" s="149"/>
+      <c r="AC76" s="112"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="102">
@@ -16282,7 +16285,7 @@
       <c r="Y77" s="80"/>
       <c r="Z77" s="80"/>
       <c r="AA77" s="55" t="str">
-        <f t="shared" ref="AA77:AA78" si="21">IF(SUMPRODUCT(--(C77:Z77&lt;&gt;""))=0,"",SUM(C77:Z77))</f>
+        <f t="shared" ref="AA77:AA78" si="18">IF(SUMPRODUCT(--(C77:Z77&lt;&gt;""))=0,"",SUM(C77:Z77))</f>
         <v/>
       </c>
       <c r="AB77" s="57">
@@ -16292,7 +16295,7 @@
     </row>
     <row r="78" spans="1:30" ht="12.75" thickBot="1">
       <c r="A78" s="102">
-        <f t="shared" ref="A78" si="22">IF(ISERROR((A77+1)),"",(A77+1))</f>
+        <f t="shared" ref="A78" si="19">IF(ISERROR((A77+1)),"",(A77+1))</f>
         <v>60</v>
       </c>
       <c r="B78" s="65" t="s">
@@ -16323,7 +16326,7 @@
       <c r="Y78" s="80"/>
       <c r="Z78" s="80"/>
       <c r="AA78" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB78" s="57">
@@ -16335,34 +16338,34 @@
       <c r="A79" s="102" t="s">
         <v>819</v>
       </c>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="115" t="s">
         <v>817</v>
       </c>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="131"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="131"/>
-      <c r="P79" s="131"/>
-      <c r="Q79" s="131"/>
-      <c r="R79" s="131"/>
-      <c r="S79" s="131"/>
-      <c r="T79" s="131"/>
-      <c r="U79" s="131"/>
-      <c r="V79" s="131"/>
-      <c r="W79" s="131"/>
-      <c r="X79" s="131"/>
-      <c r="Y79" s="131"/>
-      <c r="Z79" s="131"/>
-      <c r="AA79" s="132"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116"/>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
+      <c r="V79" s="116"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="116"/>
+      <c r="Z79" s="116"/>
+      <c r="AA79" s="117"/>
       <c r="AB79" s="56" t="s">
         <v>818</v>
       </c>
@@ -16400,7 +16403,7 @@
       <c r="Y80" s="80"/>
       <c r="Z80" s="80"/>
       <c r="AA80" s="55" t="str">
-        <f t="shared" ref="AA80:AA82" si="23">IF(SUMPRODUCT(--(C80:Z80&lt;&gt;""))=0,"",SUM(C80:Z80))</f>
+        <f t="shared" ref="AA80:AA82" si="20">IF(SUMPRODUCT(--(C80:Z80&lt;&gt;""))=0,"",SUM(C80:Z80))</f>
         <v/>
       </c>
       <c r="AB80" s="57">
@@ -16410,7 +16413,7 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="102">
-        <f t="shared" ref="A81:A82" si="24">IF(ISERROR((A80+1)),"",(A80+1))</f>
+        <f t="shared" ref="A81:A82" si="21">IF(ISERROR((A80+1)),"",(A80+1))</f>
         <v>62</v>
       </c>
       <c r="B81" s="65" t="s">
@@ -16441,7 +16444,7 @@
       <c r="Y81" s="69"/>
       <c r="Z81" s="69"/>
       <c r="AA81" s="55" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AB81" s="57">
@@ -16451,7 +16454,7 @@
     </row>
     <row r="82" spans="1:29" ht="12.75" thickBot="1">
       <c r="A82" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>63</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -16462,99 +16465,99 @@
         <v/>
       </c>
       <c r="D82" s="86" t="str">
-        <f t="shared" ref="D82:Z82" si="25">IF(D80+D81&lt;&gt;0,D80+D81,"")</f>
+        <f t="shared" ref="D82:Z82" si="22">IF(D80+D81&lt;&gt;0,D80+D81,"")</f>
         <v/>
       </c>
       <c r="E82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="T82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="X82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Y82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Z82" s="86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA82" s="55" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AB82" s="57">
@@ -16564,34 +16567,34 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="102"/>
-      <c r="B83" s="130" t="s">
+      <c r="B83" s="115" t="s">
         <v>844</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="131"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
-      <c r="O83" s="131"/>
-      <c r="P83" s="131"/>
-      <c r="Q83" s="131"/>
-      <c r="R83" s="131"/>
-      <c r="S83" s="131"/>
-      <c r="T83" s="131"/>
-      <c r="U83" s="131"/>
-      <c r="V83" s="131"/>
-      <c r="W83" s="131"/>
-      <c r="X83" s="131"/>
-      <c r="Y83" s="131"/>
-      <c r="Z83" s="131"/>
-      <c r="AA83" s="132"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="116"/>
+      <c r="N83" s="116"/>
+      <c r="O83" s="116"/>
+      <c r="P83" s="116"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="116"/>
+      <c r="S83" s="116"/>
+      <c r="T83" s="116"/>
+      <c r="U83" s="116"/>
+      <c r="V83" s="116"/>
+      <c r="W83" s="116"/>
+      <c r="X83" s="116"/>
+      <c r="Y83" s="116"/>
+      <c r="Z83" s="116"/>
+      <c r="AA83" s="117"/>
       <c r="AB83" s="56" t="s">
         <v>853</v>
       </c>
@@ -16629,7 +16632,7 @@
       <c r="Y84" s="80"/>
       <c r="Z84" s="80"/>
       <c r="AA84" s="55" t="str">
-        <f t="shared" ref="AA84:AA86" si="26">IF(SUMPRODUCT(--(C84:Z84&lt;&gt;""))=0,"",SUM(C84:Z84))</f>
+        <f t="shared" ref="AA84:AA86" si="23">IF(SUMPRODUCT(--(C84:Z84&lt;&gt;""))=0,"",SUM(C84:Z84))</f>
         <v/>
       </c>
       <c r="AB84" s="57">
@@ -16639,7 +16642,7 @@
     </row>
     <row r="85" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A85" s="102">
-        <f t="shared" ref="A85:A91" si="27">IF(ISERROR((A84+1)),"",(A84+1))</f>
+        <f t="shared" ref="A85:A91" si="24">IF(ISERROR((A84+1)),"",(A84+1))</f>
         <v>56</v>
       </c>
       <c r="B85" s="65" t="s">
@@ -16670,7 +16673,7 @@
       <c r="Y85" s="69"/>
       <c r="Z85" s="69"/>
       <c r="AA85" s="55" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AB85" s="57">
@@ -16680,7 +16683,7 @@
     </row>
     <row r="86" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A86" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>57</v>
       </c>
       <c r="B86" s="65" t="s">
@@ -16711,7 +16714,7 @@
       <c r="Y86" s="69"/>
       <c r="Z86" s="69"/>
       <c r="AA86" s="55" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AB86" s="57">
@@ -16721,7 +16724,7 @@
     </row>
     <row r="87" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A87" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>58</v>
       </c>
       <c r="B87" s="78" t="s">
@@ -16752,7 +16755,7 @@
       <c r="Y87" s="80"/>
       <c r="Z87" s="80"/>
       <c r="AA87" s="55" t="str">
-        <f t="shared" ref="AA87:AA91" si="28">IF(SUMPRODUCT(--(C87:Z87&lt;&gt;""))=0,"",SUM(C87:Z87))</f>
+        <f t="shared" ref="AA87:AA91" si="25">IF(SUMPRODUCT(--(C87:Z87&lt;&gt;""))=0,"",SUM(C87:Z87))</f>
         <v/>
       </c>
       <c r="AB87" s="57">
@@ -16762,7 +16765,7 @@
     </row>
     <row r="88" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A88" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>59</v>
       </c>
       <c r="B88" s="78" t="s">
@@ -16793,7 +16796,7 @@
       <c r="Y88" s="80"/>
       <c r="Z88" s="80"/>
       <c r="AA88" s="55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB88" s="57">
@@ -16803,7 +16806,7 @@
     </row>
     <row r="89" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A89" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="B89" s="78" t="s">
@@ -16834,7 +16837,7 @@
       <c r="Y89" s="80"/>
       <c r="Z89" s="80"/>
       <c r="AA89" s="55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB89" s="57">
@@ -16844,7 +16847,7 @@
     </row>
     <row r="90" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A90" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>61</v>
       </c>
       <c r="B90" s="65" t="s">
@@ -16875,7 +16878,7 @@
       <c r="Y90" s="69"/>
       <c r="Z90" s="69"/>
       <c r="AA90" s="55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB90" s="57">
@@ -16885,7 +16888,7 @@
     </row>
     <row r="91" spans="1:29" ht="12.75" hidden="1" thickBot="1">
       <c r="A91" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="B91" s="65" t="s">
@@ -16916,7 +16919,7 @@
       <c r="Y91" s="69"/>
       <c r="Z91" s="69"/>
       <c r="AA91" s="55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB91" s="57">
@@ -16928,34 +16931,34 @@
       <c r="A92" s="102" t="s">
         <v>880</v>
       </c>
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="115" t="s">
         <v>879</v>
       </c>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="131"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="131"/>
-      <c r="J92" s="131"/>
-      <c r="K92" s="131"/>
-      <c r="L92" s="131"/>
-      <c r="M92" s="131"/>
-      <c r="N92" s="131"/>
-      <c r="O92" s="131"/>
-      <c r="P92" s="131"/>
-      <c r="Q92" s="131"/>
-      <c r="R92" s="131"/>
-      <c r="S92" s="131"/>
-      <c r="T92" s="131"/>
-      <c r="U92" s="131"/>
-      <c r="V92" s="131"/>
-      <c r="W92" s="131"/>
-      <c r="X92" s="131"/>
-      <c r="Y92" s="131"/>
-      <c r="Z92" s="131"/>
-      <c r="AA92" s="132"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="116"/>
+      <c r="I92" s="116"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="116"/>
+      <c r="M92" s="116"/>
+      <c r="N92" s="116"/>
+      <c r="O92" s="116"/>
+      <c r="P92" s="116"/>
+      <c r="Q92" s="116"/>
+      <c r="R92" s="116"/>
+      <c r="S92" s="116"/>
+      <c r="T92" s="116"/>
+      <c r="U92" s="116"/>
+      <c r="V92" s="116"/>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Y92" s="116"/>
+      <c r="Z92" s="116"/>
+      <c r="AA92" s="117"/>
       <c r="AB92" s="56" t="s">
         <v>853</v>
       </c>
@@ -16993,7 +16996,7 @@
       <c r="Y93" s="80"/>
       <c r="Z93" s="80"/>
       <c r="AA93" s="55" t="str">
-        <f t="shared" ref="AA93:AA94" si="29">IF(SUMPRODUCT(--(C93:Z93&lt;&gt;""))=0,"",SUM(C93:Z93))</f>
+        <f t="shared" ref="AA93:AA94" si="26">IF(SUMPRODUCT(--(C93:Z93&lt;&gt;""))=0,"",SUM(C93:Z93))</f>
         <v/>
       </c>
       <c r="AB93" s="57">
@@ -17003,7 +17006,7 @@
     </row>
     <row r="94" spans="1:29" ht="12.75" thickBot="1">
       <c r="A94" s="102">
-        <f t="shared" ref="A94" si="30">IF(ISERROR((A93+1)),"",(A93+1))</f>
+        <f t="shared" ref="A94" si="27">IF(ISERROR((A93+1)),"",(A93+1))</f>
         <v>65</v>
       </c>
       <c r="B94" s="65" t="s">
@@ -17034,7 +17037,7 @@
       <c r="Y94" s="69"/>
       <c r="Z94" s="69"/>
       <c r="AA94" s="55" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB94" s="57">
@@ -17046,34 +17049,34 @@
       <c r="A95" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="130" t="s">
+      <c r="B95" s="115" t="s">
         <v>887</v>
       </c>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
-      <c r="F95" s="131"/>
-      <c r="G95" s="131"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="131"/>
-      <c r="J95" s="131"/>
-      <c r="K95" s="131"/>
-      <c r="L95" s="131"/>
-      <c r="M95" s="131"/>
-      <c r="N95" s="131"/>
-      <c r="O95" s="131"/>
-      <c r="P95" s="131"/>
-      <c r="Q95" s="131"/>
-      <c r="R95" s="131"/>
-      <c r="S95" s="131"/>
-      <c r="T95" s="131"/>
-      <c r="U95" s="131"/>
-      <c r="V95" s="131"/>
-      <c r="W95" s="131"/>
-      <c r="X95" s="131"/>
-      <c r="Y95" s="131"/>
-      <c r="Z95" s="131"/>
-      <c r="AA95" s="132"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="116"/>
+      <c r="R95" s="116"/>
+      <c r="S95" s="116"/>
+      <c r="T95" s="116"/>
+      <c r="U95" s="116"/>
+      <c r="V95" s="116"/>
+      <c r="W95" s="116"/>
+      <c r="X95" s="116"/>
+      <c r="Y95" s="116"/>
+      <c r="Z95" s="116"/>
+      <c r="AA95" s="117"/>
       <c r="AB95" s="56" t="s">
         <v>1</v>
       </c>
@@ -17111,7 +17114,7 @@
       <c r="Y96" s="80"/>
       <c r="Z96" s="80"/>
       <c r="AA96" s="55" t="str">
-        <f t="shared" ref="AA96" si="31">IF(SUMPRODUCT(--(C96:Z96&lt;&gt;""))=0,"",SUM(C96:Z96))</f>
+        <f t="shared" ref="AA96" si="28">IF(SUMPRODUCT(--(C96:Z96&lt;&gt;""))=0,"",SUM(C96:Z96))</f>
         <v/>
       </c>
       <c r="AB96" s="57">
@@ -17121,7 +17124,7 @@
     </row>
     <row r="97" spans="1:80">
       <c r="A97" s="102">
-        <f t="shared" ref="A97:A99" si="32">IF(ISERROR((A96+1)),"",(A96+1))</f>
+        <f t="shared" ref="A97:A99" si="29">IF(ISERROR((A96+1)),"",(A96+1))</f>
         <v>67</v>
       </c>
       <c r="B97" s="78" t="s">
@@ -17152,7 +17155,7 @@
       <c r="Y97" s="80"/>
       <c r="Z97" s="80"/>
       <c r="AA97" s="55" t="str">
-        <f t="shared" ref="AA97" si="33">IF(SUMPRODUCT(--(C97:Z97&lt;&gt;""))=0,"",SUM(C97:Z97))</f>
+        <f t="shared" ref="AA97" si="30">IF(SUMPRODUCT(--(C97:Z97&lt;&gt;""))=0,"",SUM(C97:Z97))</f>
         <v/>
       </c>
       <c r="AB97" s="57">
@@ -17162,7 +17165,7 @@
     </row>
     <row r="98" spans="1:80">
       <c r="A98" s="102">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>68</v>
       </c>
       <c r="B98" s="78" t="s">
@@ -17193,7 +17196,7 @@
       <c r="Y98" s="80"/>
       <c r="Z98" s="80"/>
       <c r="AA98" s="55" t="str">
-        <f t="shared" ref="AA98" si="34">IF(SUMPRODUCT(--(C98:Z98&lt;&gt;""))=0,"",SUM(C98:Z98))</f>
+        <f t="shared" ref="AA98" si="31">IF(SUMPRODUCT(--(C98:Z98&lt;&gt;""))=0,"",SUM(C98:Z98))</f>
         <v/>
       </c>
       <c r="AB98" s="57">
@@ -17203,7 +17206,7 @@
     </row>
     <row r="99" spans="1:80">
       <c r="A99" s="102">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>69</v>
       </c>
       <c r="B99" s="78" t="s">
@@ -17234,7 +17237,7 @@
       <c r="Y99" s="80"/>
       <c r="Z99" s="80"/>
       <c r="AA99" s="55" t="str">
-        <f t="shared" ref="AA99" si="35">IF(SUMPRODUCT(--(C99:Z99&lt;&gt;""))=0,"",SUM(C99:Z99))</f>
+        <f t="shared" ref="AA99" si="32">IF(SUMPRODUCT(--(C99:Z99&lt;&gt;""))=0,"",SUM(C99:Z99))</f>
         <v/>
       </c>
       <c r="AB99" s="57">
@@ -17246,34 +17249,34 @@
       <c r="A100" s="102" t="s">
         <v>889</v>
       </c>
-      <c r="B100" s="130" t="s">
+      <c r="B100" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="131"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="131"/>
-      <c r="H100" s="131"/>
-      <c r="I100" s="131"/>
-      <c r="J100" s="131"/>
-      <c r="K100" s="131"/>
-      <c r="L100" s="131"/>
-      <c r="M100" s="131"/>
-      <c r="N100" s="131"/>
-      <c r="O100" s="131"/>
-      <c r="P100" s="131"/>
-      <c r="Q100" s="131"/>
-      <c r="R100" s="131"/>
-      <c r="S100" s="131"/>
-      <c r="T100" s="131"/>
-      <c r="U100" s="131"/>
-      <c r="V100" s="131"/>
-      <c r="W100" s="131"/>
-      <c r="X100" s="131"/>
-      <c r="Y100" s="131"/>
-      <c r="Z100" s="131"/>
-      <c r="AA100" s="132"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116"/>
+      <c r="J100" s="116"/>
+      <c r="K100" s="116"/>
+      <c r="L100" s="116"/>
+      <c r="M100" s="116"/>
+      <c r="N100" s="116"/>
+      <c r="O100" s="116"/>
+      <c r="P100" s="116"/>
+      <c r="Q100" s="116"/>
+      <c r="R100" s="116"/>
+      <c r="S100" s="116"/>
+      <c r="T100" s="116"/>
+      <c r="U100" s="116"/>
+      <c r="V100" s="116"/>
+      <c r="W100" s="116"/>
+      <c r="X100" s="116"/>
+      <c r="Y100" s="116"/>
+      <c r="Z100" s="116"/>
+      <c r="AA100" s="117"/>
       <c r="AB100" s="57" t="s">
         <v>889</v>
       </c>
@@ -17284,86 +17287,74 @@
       <c r="B101" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="144" t="s">
+      <c r="C101" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="145"/>
-      <c r="E101" s="145"/>
-      <c r="F101" s="145"/>
-      <c r="G101" s="145"/>
-      <c r="H101" s="145"/>
-      <c r="I101" s="145"/>
-      <c r="J101" s="145"/>
-      <c r="K101" s="145"/>
-      <c r="L101" s="145"/>
-      <c r="M101" s="145"/>
-      <c r="N101" s="145"/>
-      <c r="O101" s="145"/>
-      <c r="P101" s="145"/>
-      <c r="Q101" s="145"/>
-      <c r="R101" s="145"/>
-      <c r="S101" s="145"/>
-      <c r="T101" s="145"/>
-      <c r="U101" s="145"/>
-      <c r="V101" s="145"/>
-      <c r="W101" s="145"/>
-      <c r="X101" s="145"/>
-      <c r="Y101" s="145"/>
-      <c r="Z101" s="145"/>
-      <c r="AA101" s="146"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="124"/>
+      <c r="J101" s="124"/>
+      <c r="K101" s="124"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="124"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="124"/>
+      <c r="P101" s="124"/>
+      <c r="Q101" s="124"/>
+      <c r="R101" s="124"/>
+      <c r="S101" s="124"/>
+      <c r="T101" s="124"/>
+      <c r="U101" s="124"/>
+      <c r="V101" s="124"/>
+      <c r="W101" s="124"/>
+      <c r="X101" s="124"/>
+      <c r="Y101" s="124"/>
+      <c r="Z101" s="124"/>
+      <c r="AA101" s="125"/>
       <c r="AB101" s="56"/>
       <c r="AC101" s="107"/>
     </row>
     <row r="102" spans="1:80" ht="12.75" thickBot="1">
       <c r="B102" s="63"/>
-      <c r="C102" s="139"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-      <c r="H102" s="140"/>
-      <c r="I102" s="140"/>
-      <c r="J102" s="140"/>
-      <c r="K102" s="140"/>
-      <c r="L102" s="140"/>
-      <c r="M102" s="140"/>
-      <c r="N102" s="140"/>
-      <c r="O102" s="140"/>
-      <c r="P102" s="140"/>
-      <c r="Q102" s="140"/>
-      <c r="R102" s="140"/>
-      <c r="S102" s="140"/>
-      <c r="T102" s="140"/>
-      <c r="U102" s="140"/>
-      <c r="V102" s="140"/>
-      <c r="W102" s="140"/>
-      <c r="X102" s="140"/>
-      <c r="Y102" s="140"/>
-      <c r="Z102" s="140"/>
-      <c r="AA102" s="141"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119"/>
+      <c r="I102" s="119"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="119"/>
+      <c r="N102" s="119"/>
+      <c r="O102" s="119"/>
+      <c r="P102" s="119"/>
+      <c r="Q102" s="119"/>
+      <c r="R102" s="119"/>
+      <c r="S102" s="119"/>
+      <c r="T102" s="119"/>
+      <c r="U102" s="119"/>
+      <c r="V102" s="119"/>
+      <c r="W102" s="119"/>
+      <c r="X102" s="119"/>
+      <c r="Y102" s="119"/>
+      <c r="Z102" s="119"/>
+      <c r="AA102" s="120"/>
       <c r="AB102" s="60"/>
       <c r="CB102" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DiyfoCO3HzceZJ9FHqmD7AQkyA0axFvGACT4bBcw2vsVL2772NUQxhHooyjJWZlo2ZdyQTg7pnIHFM8j7j8QIA==" saltValue="4Yj6TybknRQMM5pehYjkaA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l6CmysxGXqwIMrJ9W9cugxznWRHJycg4n412VPKJ2wIHD7ZzvPKGWeH491Ezs7zS0cR5cZLyJ2ERtWnTRcv0cg==" saltValue="ePp/oByWdn2ZauGBB9MILg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="AC65:AC67"/>
-    <mergeCell ref="AC68:AC76"/>
-    <mergeCell ref="C65:AA65"/>
-    <mergeCell ref="B83:AA83"/>
-    <mergeCell ref="B79:AA79"/>
-    <mergeCell ref="C102:AA102"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="C101:AA101"/>
-    <mergeCell ref="B76:AA76"/>
-    <mergeCell ref="B59:AA59"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="B53:AA53"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B92:AA92"/>
-    <mergeCell ref="B95:AA95"/>
-    <mergeCell ref="B100:AA100"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:W5"/>
     <mergeCell ref="C6:AA6"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="B9:AA9"/>
@@ -17380,11 +17371,23 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="C102:AA102"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="C101:AA101"/>
+    <mergeCell ref="B76:AA76"/>
+    <mergeCell ref="B59:AA59"/>
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="B53:AA53"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B92:AA92"/>
+    <mergeCell ref="B95:AA95"/>
+    <mergeCell ref="B100:AA100"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="AC68:AC76"/>
+    <mergeCell ref="C65:AA65"/>
+    <mergeCell ref="B83:AA83"/>
+    <mergeCell ref="B79:AA79"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C18:Z18">
@@ -17397,7 +17400,7 @@
       <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA18:AA20 AA22:AA32 AA34:AA35 AA10:AA16 AA60:AA64 AA49:AA52">
+  <conditionalFormatting sqref="AA18:AA20 AA22:AA32 AA34:AA35 AA10:AA16 AA60:AA64">
     <cfRule type="notContainsBlanks" dxfId="764" priority="342">
       <formula>LEN(TRIM(AA10))&gt;0</formula>
     </cfRule>
@@ -18154,7 +18157,7 @@
       <formula>C94&gt;C93</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AA44 AA46:AA47">
+  <conditionalFormatting sqref="AA42:AA44 AA46:AA52">
     <cfRule type="notContainsBlanks" dxfId="611" priority="134">
       <formula>LEN(TRIM(AA42))&gt;0</formula>
     </cfRule>
@@ -18267,11 +18270,6 @@
   <conditionalFormatting sqref="J70">
     <cfRule type="notContainsBlanks" dxfId="589" priority="107">
       <formula>LEN(TRIM(J70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA48">
-    <cfRule type="notContainsBlanks" dxfId="588" priority="106">
-      <formula>LEN(TRIM(AA48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:Z48">
@@ -18628,7 +18626,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Service Delivery Point (SDP):" prompt="Click arrow to select_x000a_" sqref="C6">
       <formula1>"PMTCT,CCC"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non Numeric Character" error="Enter Numbers only" sqref="AA18:AA20 AA22:AA32 AA34:AA35 AA84:AA90 AA10:AA16 AA54:AA58 AA80:AA82 AA77:AA78 AA96:AA99 C82:Z82 C86:Z86 AA60:AA64 C91:AA91 AA93:AA94 AA37:AA52 AA66:AA75"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non Numeric Character" error="Enter Numbers only" sqref="AA18:AA20 AA22:AA32 AA34:AA35 AA84:AA90 AA10:AA16 AA54:AA58 AA80:AA82 AA77:AA78 AA96:AA99 C82:Z82 C86:Z86 AA60:AA64 C91:AA91 AA93:AA94 AA66:AA75 AA37:AA52"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5">
       <formula1>$AD$1:$BI$1</formula1>
     </dataValidation>
@@ -18656,12 +18654,12 @@
   </sheetPr>
   <dimension ref="A1:CB102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AJ71" sqref="AJ71"/>
       <selection pane="topRight" activeCell="AJ71" sqref="AJ71"/>
       <selection pane="bottomLeft" activeCell="AJ71" sqref="AJ71"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
@@ -18806,7 +18804,7 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="139" t="s">
         <v>902</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -18878,7 +18876,7 @@
       </c>
     </row>
     <row r="3" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A3" s="112"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -18907,15 +18905,15 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:80">
-      <c r="A4" s="112"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -18934,42 +18932,42 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="38"/>
-      <c r="X4" s="116" t="s">
+      <c r="X4" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="117"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="145"/>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="118" t="str">
+      <c r="C5" s="146" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149" t="s">
         <v>806</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="123"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="151"/>
       <c r="X5" s="72" t="s">
         <v>4</v>
       </c>
@@ -18986,88 +18984,88 @@
       <c r="B6" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
     </row>
     <row r="7" spans="1:80" s="48" customFormat="1">
       <c r="A7" s="135" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="136"/>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="126" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="126" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="126" t="s">
+      <c r="J7" s="128"/>
+      <c r="K7" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="126" t="s">
+      <c r="L7" s="128"/>
+      <c r="M7" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="126" t="s">
+      <c r="N7" s="134"/>
+      <c r="O7" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="126" t="s">
+      <c r="P7" s="128"/>
+      <c r="Q7" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="133"/>
-      <c r="S7" s="125" t="s">
+      <c r="R7" s="134"/>
+      <c r="S7" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="T7" s="125"/>
-      <c r="U7" s="126" t="s">
+      <c r="T7" s="130"/>
+      <c r="U7" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="V7" s="134"/>
-      <c r="W7" s="125" t="s">
+      <c r="V7" s="128"/>
+      <c r="W7" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125" t="s">
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="142" t="s">
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="121" t="s">
         <v>216</v>
       </c>
       <c r="AB7" s="46"/>
@@ -19199,7 +19197,7 @@
       <c r="Z8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="152"/>
+      <c r="AA8" s="157"/>
       <c r="AB8" s="46"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="47"/>
@@ -19258,34 +19256,34 @@
       <c r="A9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="157"/>
-      <c r="AA9" s="132"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="117"/>
       <c r="AB9" s="53" t="s">
         <v>207</v>
       </c>
@@ -19638,34 +19636,34 @@
       <c r="A17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="132"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="117"/>
       <c r="AB17" s="58" t="s">
         <v>18</v>
       </c>
@@ -19859,34 +19857,34 @@
       <c r="A21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="157"/>
-      <c r="S21" s="157"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="132"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="153"/>
+      <c r="W21" s="153"/>
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="153"/>
+      <c r="AA21" s="117"/>
       <c r="AB21" s="60" t="s">
         <v>17</v>
       </c>
@@ -20346,34 +20344,34 @@
       <c r="A33" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157"/>
-      <c r="T33" s="157"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="132"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="153"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="117"/>
       <c r="AB33" s="60" t="s">
         <v>15</v>
       </c>
@@ -20464,34 +20462,34 @@
       <c r="A36" s="54" t="s">
         <v>758</v>
       </c>
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="154" t="s">
         <v>757</v>
       </c>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="154"/>
-      <c r="R36" s="154"/>
-      <c r="S36" s="154"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="154"/>
-      <c r="V36" s="154"/>
-      <c r="W36" s="154"/>
-      <c r="X36" s="154"/>
-      <c r="Y36" s="154"/>
-      <c r="Z36" s="154"/>
-      <c r="AA36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="155"/>
+      <c r="V36" s="155"/>
+      <c r="W36" s="155"/>
+      <c r="X36" s="155"/>
+      <c r="Y36" s="155"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="156"/>
       <c r="AB36" s="60" t="s">
         <v>758</v>
       </c>
@@ -20886,7 +20884,7 @@
       <c r="Y42" s="97"/>
       <c r="Z42" s="97"/>
       <c r="AA42" s="55" t="str">
-        <f t="shared" ref="AA42:AA48" si="8">IF(SUMPRODUCT(--(C42:Z42&lt;&gt;""))=0,"",SUM(C42:Z42))</f>
+        <f t="shared" ref="AA42:AA52" si="8">IF(SUMPRODUCT(--(C42:Z42&lt;&gt;""))=0,"",SUM(C42:Z42))</f>
         <v/>
       </c>
       <c r="AB42" s="93">
@@ -21293,7 +21291,10 @@
       <c r="X47" s="97"/>
       <c r="Y47" s="97"/>
       <c r="Z47" s="97"/>
-      <c r="AA47" s="55"/>
+      <c r="AA47" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="AB47" s="93">
         <v>92</v>
       </c>
@@ -21435,7 +21436,7 @@
       <c r="Y49" s="97"/>
       <c r="Z49" s="97"/>
       <c r="AA49" s="55" t="str">
-        <f t="shared" ref="AA49:AA51" si="11">IF(SUMPRODUCT(--(C49:Z49&lt;&gt;""))=0,"",SUM(C49:Z49))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB49" s="93">
@@ -21507,7 +21508,7 @@
       <c r="Y50" s="97"/>
       <c r="Z50" s="97"/>
       <c r="AA50" s="55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB50" s="93">
@@ -21579,7 +21580,7 @@
       <c r="Y51" s="97"/>
       <c r="Z51" s="97"/>
       <c r="AA51" s="55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB51" s="93">
@@ -21650,7 +21651,7 @@
       <c r="Y52" s="97"/>
       <c r="Z52" s="97"/>
       <c r="AA52" s="55" t="str">
-        <f t="shared" ref="AA52" si="12">IF(SUMPRODUCT(--(C52:Z52&lt;&gt;""))=0,"",SUM(C52:Z52))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB52" s="93">
@@ -21693,34 +21694,34 @@
       <c r="A53" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="115" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="131"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
-      <c r="S53" s="131"/>
-      <c r="T53" s="131"/>
-      <c r="U53" s="131"/>
-      <c r="V53" s="131"/>
-      <c r="W53" s="131"/>
-      <c r="X53" s="131"/>
-      <c r="Y53" s="131"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="132"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="116"/>
+      <c r="Z53" s="116"/>
+      <c r="AA53" s="117"/>
       <c r="AB53" s="60" t="s">
         <v>0</v>
       </c>
@@ -21758,7 +21759,7 @@
       <c r="Y54" s="80"/>
       <c r="Z54" s="80"/>
       <c r="AA54" s="55" t="str">
-        <f t="shared" ref="AA54:AA58" si="13">IF(SUMPRODUCT(--(C54:Z54&lt;&gt;""))=0,"",SUM(C54:Z54))</f>
+        <f t="shared" ref="AA54:AA58" si="11">IF(SUMPRODUCT(--(C54:Z54&lt;&gt;""))=0,"",SUM(C54:Z54))</f>
         <v/>
       </c>
       <c r="AB54" s="57">
@@ -21768,7 +21769,7 @@
     </row>
     <row r="55" spans="1:61">
       <c r="A55" s="54">
-        <f t="shared" ref="A55:A58" si="14">IF(ISERROR((A54+1)),"",(A54+1))</f>
+        <f t="shared" ref="A55:A58" si="12">IF(ISERROR((A54+1)),"",(A54+1))</f>
         <v>40</v>
       </c>
       <c r="B55" s="65" t="s">
@@ -21799,7 +21800,7 @@
       <c r="Y55" s="69"/>
       <c r="Z55" s="69"/>
       <c r="AA55" s="55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB55" s="57">
@@ -21809,7 +21810,7 @@
     </row>
     <row r="56" spans="1:61">
       <c r="A56" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="B56" s="65" t="s">
@@ -21840,7 +21841,7 @@
       <c r="Y56" s="69"/>
       <c r="Z56" s="69"/>
       <c r="AA56" s="55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB56" s="57">
@@ -21850,7 +21851,7 @@
     </row>
     <row r="57" spans="1:61">
       <c r="A57" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="B57" s="65" t="s">
@@ -21881,7 +21882,7 @@
       <c r="Y57" s="69"/>
       <c r="Z57" s="69"/>
       <c r="AA57" s="55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB57" s="57">
@@ -21891,7 +21892,7 @@
     </row>
     <row r="58" spans="1:61" ht="12.75" thickBot="1">
       <c r="A58" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="B58" s="81" t="s">
@@ -21922,7 +21923,7 @@
       <c r="Y58" s="82"/>
       <c r="Z58" s="82"/>
       <c r="AA58" s="92" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB58" s="57">
@@ -21934,34 +21935,34 @@
       <c r="A59" s="54" t="s">
         <v>801</v>
       </c>
-      <c r="B59" s="153" t="s">
+      <c r="B59" s="154" t="s">
         <v>800</v>
       </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154"/>
-      <c r="K59" s="154"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="154"/>
-      <c r="N59" s="154"/>
-      <c r="O59" s="154"/>
-      <c r="P59" s="154"/>
-      <c r="Q59" s="154"/>
-      <c r="R59" s="154"/>
-      <c r="S59" s="154"/>
-      <c r="T59" s="154"/>
-      <c r="U59" s="154"/>
-      <c r="V59" s="154"/>
-      <c r="W59" s="154"/>
-      <c r="X59" s="154"/>
-      <c r="Y59" s="154"/>
-      <c r="Z59" s="154"/>
-      <c r="AA59" s="155"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="155"/>
+      <c r="R59" s="155"/>
+      <c r="S59" s="155"/>
+      <c r="T59" s="155"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="155"/>
+      <c r="W59" s="155"/>
+      <c r="X59" s="155"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="156"/>
       <c r="AB59" s="60" t="s">
         <v>801</v>
       </c>
@@ -21999,7 +22000,7 @@
       <c r="Y60" s="80"/>
       <c r="Z60" s="79"/>
       <c r="AA60" s="55" t="str">
-        <f t="shared" ref="AA60:AA64" si="15">IF(SUMPRODUCT(--(C60:Z60&lt;&gt;""))=0,"",SUM(C60:Z60))</f>
+        <f t="shared" ref="AA60:AA64" si="13">IF(SUMPRODUCT(--(C60:Z60&lt;&gt;""))=0,"",SUM(C60:Z60))</f>
         <v/>
       </c>
       <c r="AB60" s="57">
@@ -22009,7 +22010,7 @@
     </row>
     <row r="61" spans="1:61">
       <c r="A61" s="54">
-        <f t="shared" ref="A61:A63" si="16">IF(ISERROR((A60+1)),"",(A60+1))</f>
+        <f t="shared" ref="A61:A63" si="14">IF(ISERROR((A60+1)),"",(A60+1))</f>
         <v>45</v>
       </c>
       <c r="B61" s="65" t="s">
@@ -22040,7 +22041,7 @@
       <c r="Y61" s="69"/>
       <c r="Z61" s="71"/>
       <c r="AA61" s="55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB61" s="57">
@@ -22050,7 +22051,7 @@
     </row>
     <row r="62" spans="1:61">
       <c r="A62" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
       <c r="B62" s="94" t="s">
@@ -22081,7 +22082,7 @@
       <c r="Y62" s="69"/>
       <c r="Z62" s="71"/>
       <c r="AA62" s="55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB62" s="57">
@@ -22091,7 +22092,7 @@
     </row>
     <row r="63" spans="1:61">
       <c r="A63" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="B63" s="65" t="s">
@@ -22122,7 +22123,7 @@
       <c r="Y63" s="69"/>
       <c r="Z63" s="71"/>
       <c r="AA63" s="55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB63" s="57">
@@ -22163,7 +22164,7 @@
       <c r="Y64" s="69"/>
       <c r="Z64" s="71"/>
       <c r="AA64" s="55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB64" s="57">
@@ -22178,38 +22179,38 @@
       <c r="B65" s="108" t="s">
         <v>809</v>
       </c>
-      <c r="C65" s="150" t="str">
+      <c r="C65" s="113" t="str">
         <f>AC65</f>
         <v/>
       </c>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="150"/>
-      <c r="N65" s="150"/>
-      <c r="O65" s="150"/>
-      <c r="P65" s="150"/>
-      <c r="Q65" s="150"/>
-      <c r="R65" s="150"/>
-      <c r="S65" s="150"/>
-      <c r="T65" s="150"/>
-      <c r="U65" s="150"/>
-      <c r="V65" s="150"/>
-      <c r="W65" s="150"/>
-      <c r="X65" s="150"/>
-      <c r="Y65" s="150"/>
-      <c r="Z65" s="150"/>
-      <c r="AA65" s="151"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="113"/>
+      <c r="T65" s="113"/>
+      <c r="U65" s="113"/>
+      <c r="V65" s="113"/>
+      <c r="W65" s="113"/>
+      <c r="X65" s="113"/>
+      <c r="Y65" s="113"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="114"/>
       <c r="AB65" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="AC65" s="148" t="str">
+      <c r="AC65" s="111" t="str">
         <f>CONCATENATE(AD65)</f>
         <v/>
       </c>
@@ -22287,7 +22288,7 @@
       <c r="AB66" s="57">
         <v>50</v>
       </c>
-      <c r="AC66" s="148"/>
+      <c r="AC66" s="111"/>
       <c r="AE66" s="27"/>
       <c r="AF66" s="27"/>
       <c r="AG66" s="27"/>
@@ -22353,13 +22354,13 @@
       <c r="Y67" s="80"/>
       <c r="Z67" s="79"/>
       <c r="AA67" s="55">
-        <f t="shared" ref="AA67:AA74" si="17">IF(SUMPRODUCT(--(C67:Z67&lt;&gt;""))=0,0,SUM(C67:Z67))</f>
+        <f t="shared" ref="AA67:AA74" si="15">IF(SUMPRODUCT(--(C67:Z67&lt;&gt;""))=0,0,SUM(C67:Z67))</f>
         <v>0</v>
       </c>
       <c r="AB67" s="57">
         <v>94</v>
       </c>
-      <c r="AC67" s="148"/>
+      <c r="AC67" s="111"/>
       <c r="AE67" s="27"/>
       <c r="AF67" s="27"/>
       <c r="AG67" s="27"/>
@@ -22425,13 +22426,13 @@
       <c r="Y68" s="80"/>
       <c r="Z68" s="79"/>
       <c r="AA68" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB68" s="57">
         <v>93</v>
       </c>
-      <c r="AC68" s="149"/>
+      <c r="AC68" s="112"/>
       <c r="AE68" s="27"/>
       <c r="AF68" s="27"/>
       <c r="AG68" s="27"/>
@@ -22466,7 +22467,7 @@
     </row>
     <row r="69" spans="1:61" ht="15" customHeight="1">
       <c r="A69" s="54">
-        <f t="shared" ref="A69:A75" si="18">IF(ISERROR((A68+1)),"",(A68+1))</f>
+        <f t="shared" ref="A69:A75" si="16">IF(ISERROR((A68+1)),"",(A68+1))</f>
         <v>52</v>
       </c>
       <c r="B69" s="105" t="s">
@@ -22497,13 +22498,13 @@
       <c r="Y69" s="80"/>
       <c r="Z69" s="79"/>
       <c r="AA69" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB69" s="57">
         <v>95</v>
       </c>
-      <c r="AC69" s="149"/>
+      <c r="AC69" s="112"/>
       <c r="AE69" s="27"/>
       <c r="AF69" s="27"/>
       <c r="AG69" s="27"/>
@@ -22538,7 +22539,7 @@
     </row>
     <row r="70" spans="1:61" ht="15" customHeight="1">
       <c r="A70" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="B70" s="65" t="s">
@@ -22596,13 +22597,13 @@
       </c>
       <c r="Z70" s="79"/>
       <c r="AA70" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB70" s="57">
         <v>85</v>
       </c>
-      <c r="AC70" s="149"/>
+      <c r="AC70" s="112"/>
       <c r="AE70" s="27"/>
       <c r="AF70" s="27"/>
       <c r="AG70" s="27"/>
@@ -22637,7 +22638,7 @@
     </row>
     <row r="71" spans="1:61" ht="15" customHeight="1">
       <c r="A71" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="B71" s="65" t="s">
@@ -22668,13 +22669,13 @@
       <c r="Y71" s="69"/>
       <c r="Z71" s="71"/>
       <c r="AA71" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB71" s="57">
         <v>51</v>
       </c>
-      <c r="AC71" s="149"/>
+      <c r="AC71" s="112"/>
       <c r="AE71" s="27"/>
       <c r="AF71" s="27"/>
       <c r="AG71" s="27"/>
@@ -22709,7 +22710,7 @@
     </row>
     <row r="72" spans="1:61" ht="15" customHeight="1">
       <c r="A72" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="B72" s="65" t="s">
@@ -22740,13 +22741,13 @@
       <c r="Y72" s="69"/>
       <c r="Z72" s="71"/>
       <c r="AA72" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB72" s="57">
         <v>52</v>
       </c>
-      <c r="AC72" s="149"/>
+      <c r="AC72" s="112"/>
       <c r="AE72" s="27"/>
       <c r="AF72" s="27"/>
       <c r="AG72" s="27"/>
@@ -22781,7 +22782,7 @@
     </row>
     <row r="73" spans="1:61" ht="15" customHeight="1">
       <c r="A73" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="B73" s="105" t="s">
@@ -22812,13 +22813,13 @@
       <c r="Y73" s="79"/>
       <c r="Z73" s="79"/>
       <c r="AA73" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB73" s="57">
         <v>89</v>
       </c>
-      <c r="AC73" s="149"/>
+      <c r="AC73" s="112"/>
       <c r="AE73" s="27"/>
       <c r="AF73" s="27"/>
       <c r="AG73" s="27"/>
@@ -22853,7 +22854,7 @@
     </row>
     <row r="74" spans="1:61" ht="15" customHeight="1">
       <c r="A74" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="B74" s="105" t="s">
@@ -22884,13 +22885,13 @@
       <c r="Y74" s="69"/>
       <c r="Z74" s="71"/>
       <c r="AA74" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB74" s="57">
         <v>90</v>
       </c>
-      <c r="AC74" s="149"/>
+      <c r="AC74" s="112"/>
       <c r="AE74" s="27"/>
       <c r="AF74" s="27"/>
       <c r="AG74" s="27"/>
@@ -22925,7 +22926,7 @@
     </row>
     <row r="75" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="B75" s="105" t="s">
@@ -22962,7 +22963,7 @@
       <c r="AB75" s="57">
         <v>91</v>
       </c>
-      <c r="AC75" s="149"/>
+      <c r="AC75" s="112"/>
       <c r="AE75" s="27"/>
       <c r="AF75" s="27"/>
       <c r="AG75" s="27"/>
@@ -22999,38 +23000,38 @@
       <c r="A76" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="B76" s="147" t="s">
+      <c r="B76" s="126" t="s">
         <v>820</v>
       </c>
-      <c r="C76" s="131"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="131"/>
-      <c r="G76" s="131"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
-      <c r="O76" s="131"/>
-      <c r="P76" s="131"/>
-      <c r="Q76" s="131"/>
-      <c r="R76" s="131"/>
-      <c r="S76" s="131"/>
-      <c r="T76" s="131"/>
-      <c r="U76" s="131"/>
-      <c r="V76" s="131"/>
-      <c r="W76" s="131"/>
-      <c r="X76" s="131"/>
-      <c r="Y76" s="131"/>
-      <c r="Z76" s="131"/>
-      <c r="AA76" s="132"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="116"/>
+      <c r="N76" s="116"/>
+      <c r="O76" s="116"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
+      <c r="R76" s="116"/>
+      <c r="S76" s="116"/>
+      <c r="T76" s="116"/>
+      <c r="U76" s="116"/>
+      <c r="V76" s="116"/>
+      <c r="W76" s="116"/>
+      <c r="X76" s="116"/>
+      <c r="Y76" s="116"/>
+      <c r="Z76" s="116"/>
+      <c r="AA76" s="117"/>
       <c r="AB76" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="AC76" s="149"/>
+      <c r="AC76" s="112"/>
       <c r="AE76" s="27"/>
       <c r="AF76" s="27"/>
       <c r="AG76" s="27"/>
@@ -23095,7 +23096,7 @@
       <c r="Y77" s="80"/>
       <c r="Z77" s="80"/>
       <c r="AA77" s="55" t="str">
-        <f t="shared" ref="AA77:AA78" si="19">IF(SUMPRODUCT(--(C77:Z77&lt;&gt;""))=0,"",SUM(C77:Z77))</f>
+        <f t="shared" ref="AA77:AA78" si="17">IF(SUMPRODUCT(--(C77:Z77&lt;&gt;""))=0,"",SUM(C77:Z77))</f>
         <v/>
       </c>
       <c r="AB77" s="57">
@@ -23136,7 +23137,7 @@
     </row>
     <row r="78" spans="1:61" ht="12.75" thickBot="1">
       <c r="A78" s="54">
-        <f t="shared" ref="A78" si="20">IF(ISERROR((A77+1)),"",(A77+1))</f>
+        <f t="shared" ref="A78" si="18">IF(ISERROR((A77+1)),"",(A77+1))</f>
         <v>60</v>
       </c>
       <c r="B78" s="65" t="s">
@@ -23167,7 +23168,7 @@
       <c r="Y78" s="80"/>
       <c r="Z78" s="80"/>
       <c r="AA78" s="55" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB78" s="57">
@@ -23210,34 +23211,34 @@
       <c r="A79" s="54" t="s">
         <v>819</v>
       </c>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="115" t="s">
         <v>817</v>
       </c>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="131"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="131"/>
-      <c r="P79" s="131"/>
-      <c r="Q79" s="131"/>
-      <c r="R79" s="131"/>
-      <c r="S79" s="131"/>
-      <c r="T79" s="131"/>
-      <c r="U79" s="131"/>
-      <c r="V79" s="131"/>
-      <c r="W79" s="131"/>
-      <c r="X79" s="131"/>
-      <c r="Y79" s="131"/>
-      <c r="Z79" s="131"/>
-      <c r="AA79" s="132"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116"/>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
+      <c r="V79" s="116"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="116"/>
+      <c r="Z79" s="116"/>
+      <c r="AA79" s="117"/>
       <c r="AB79" s="56" t="s">
         <v>818</v>
       </c>
@@ -23306,7 +23307,7 @@
       <c r="Y80" s="80"/>
       <c r="Z80" s="80"/>
       <c r="AA80" s="55" t="str">
-        <f t="shared" ref="AA80:AA82" si="21">IF(SUMPRODUCT(--(C80:Z80&lt;&gt;""))=0,"",SUM(C80:Z80))</f>
+        <f t="shared" ref="AA80:AA82" si="19">IF(SUMPRODUCT(--(C80:Z80&lt;&gt;""))=0,"",SUM(C80:Z80))</f>
         <v/>
       </c>
       <c r="AB80" s="57">
@@ -23347,7 +23348,7 @@
     </row>
     <row r="81" spans="1:61">
       <c r="A81" s="54">
-        <f t="shared" ref="A81:A82" si="22">IF(ISERROR((A80+1)),"",(A80+1))</f>
+        <f t="shared" ref="A81:A82" si="20">IF(ISERROR((A80+1)),"",(A80+1))</f>
         <v>62</v>
       </c>
       <c r="B81" s="65" t="s">
@@ -23378,7 +23379,7 @@
       <c r="Y81" s="69"/>
       <c r="Z81" s="69"/>
       <c r="AA81" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AB81" s="57">
@@ -23419,7 +23420,7 @@
     </row>
     <row r="82" spans="1:61" ht="12.75" thickBot="1">
       <c r="A82" s="54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -23430,99 +23431,99 @@
         <v/>
       </c>
       <c r="D82" s="86" t="str">
-        <f t="shared" ref="D82:Z82" si="23">IF(D80+D81&lt;&gt;0,D80+D81,"")</f>
+        <f t="shared" ref="D82:Z82" si="21">IF(D80+D81&lt;&gt;0,D80+D81,"")</f>
         <v/>
       </c>
       <c r="E82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="V82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="X82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Z82" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA82" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AB82" s="57">
@@ -23563,34 +23564,34 @@
     </row>
     <row r="83" spans="1:61" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="54"/>
-      <c r="B83" s="130" t="s">
+      <c r="B83" s="115" t="s">
         <v>844</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="131"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
-      <c r="O83" s="131"/>
-      <c r="P83" s="131"/>
-      <c r="Q83" s="131"/>
-      <c r="R83" s="131"/>
-      <c r="S83" s="131"/>
-      <c r="T83" s="131"/>
-      <c r="U83" s="131"/>
-      <c r="V83" s="131"/>
-      <c r="W83" s="131"/>
-      <c r="X83" s="131"/>
-      <c r="Y83" s="131"/>
-      <c r="Z83" s="131"/>
-      <c r="AA83" s="132"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="116"/>
+      <c r="N83" s="116"/>
+      <c r="O83" s="116"/>
+      <c r="P83" s="116"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="116"/>
+      <c r="S83" s="116"/>
+      <c r="T83" s="116"/>
+      <c r="U83" s="116"/>
+      <c r="V83" s="116"/>
+      <c r="W83" s="116"/>
+      <c r="X83" s="116"/>
+      <c r="Y83" s="116"/>
+      <c r="Z83" s="116"/>
+      <c r="AA83" s="117"/>
       <c r="AB83" s="56" t="s">
         <v>853</v>
       </c>
@@ -23659,7 +23660,7 @@
       <c r="Y84" s="80"/>
       <c r="Z84" s="80"/>
       <c r="AA84" s="55" t="str">
-        <f t="shared" ref="AA84:AA91" si="24">IF(SUMPRODUCT(--(C84:Z84&lt;&gt;""))=0,"",SUM(C84:Z84))</f>
+        <f t="shared" ref="AA84:AA91" si="22">IF(SUMPRODUCT(--(C84:Z84&lt;&gt;""))=0,"",SUM(C84:Z84))</f>
         <v/>
       </c>
       <c r="AB84" s="57">
@@ -23700,7 +23701,7 @@
     </row>
     <row r="85" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A85" s="54">
-        <f t="shared" ref="A85:A91" si="25">IF(ISERROR((A84+1)),"",(A84+1))</f>
+        <f t="shared" ref="A85:A91" si="23">IF(ISERROR((A84+1)),"",(A84+1))</f>
         <v>56</v>
       </c>
       <c r="B85" s="65" t="s">
@@ -23731,7 +23732,7 @@
       <c r="Y85" s="69"/>
       <c r="Z85" s="69"/>
       <c r="AA85" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB85" s="57">
@@ -23772,7 +23773,7 @@
     </row>
     <row r="86" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A86" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>57</v>
       </c>
       <c r="B86" s="65" t="s">
@@ -23803,7 +23804,7 @@
       <c r="Y86" s="69"/>
       <c r="Z86" s="69"/>
       <c r="AA86" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB86" s="57">
@@ -23844,7 +23845,7 @@
     </row>
     <row r="87" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A87" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="B87" s="78" t="s">
@@ -23875,7 +23876,7 @@
       <c r="Y87" s="80"/>
       <c r="Z87" s="80"/>
       <c r="AA87" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB87" s="57">
@@ -23916,7 +23917,7 @@
     </row>
     <row r="88" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A88" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>59</v>
       </c>
       <c r="B88" s="78" t="s">
@@ -23947,7 +23948,7 @@
       <c r="Y88" s="80"/>
       <c r="Z88" s="80"/>
       <c r="AA88" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB88" s="57">
@@ -23988,7 +23989,7 @@
     </row>
     <row r="89" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A89" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="B89" s="78" t="s">
@@ -24019,7 +24020,7 @@
       <c r="Y89" s="80"/>
       <c r="Z89" s="80"/>
       <c r="AA89" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB89" s="57">
@@ -24060,7 +24061,7 @@
     </row>
     <row r="90" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A90" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>61</v>
       </c>
       <c r="B90" s="65" t="s">
@@ -24091,7 +24092,7 @@
       <c r="Y90" s="69"/>
       <c r="Z90" s="69"/>
       <c r="AA90" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB90" s="57">
@@ -24132,7 +24133,7 @@
     </row>
     <row r="91" spans="1:61" ht="12.75" hidden="1" thickBot="1">
       <c r="A91" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>62</v>
       </c>
       <c r="B91" s="65" t="s">
@@ -24163,7 +24164,7 @@
       <c r="Y91" s="69"/>
       <c r="Z91" s="69"/>
       <c r="AA91" s="55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB91" s="57">
@@ -24206,34 +24207,34 @@
       <c r="A92" s="54" t="s">
         <v>880</v>
       </c>
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="115" t="s">
         <v>879</v>
       </c>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="131"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="131"/>
-      <c r="J92" s="131"/>
-      <c r="K92" s="131"/>
-      <c r="L92" s="131"/>
-      <c r="M92" s="131"/>
-      <c r="N92" s="131"/>
-      <c r="O92" s="131"/>
-      <c r="P92" s="131"/>
-      <c r="Q92" s="131"/>
-      <c r="R92" s="131"/>
-      <c r="S92" s="131"/>
-      <c r="T92" s="131"/>
-      <c r="U92" s="131"/>
-      <c r="V92" s="131"/>
-      <c r="W92" s="131"/>
-      <c r="X92" s="131"/>
-      <c r="Y92" s="131"/>
-      <c r="Z92" s="131"/>
-      <c r="AA92" s="132"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="116"/>
+      <c r="I92" s="116"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="116"/>
+      <c r="M92" s="116"/>
+      <c r="N92" s="116"/>
+      <c r="O92" s="116"/>
+      <c r="P92" s="116"/>
+      <c r="Q92" s="116"/>
+      <c r="R92" s="116"/>
+      <c r="S92" s="116"/>
+      <c r="T92" s="116"/>
+      <c r="U92" s="116"/>
+      <c r="V92" s="116"/>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Y92" s="116"/>
+      <c r="Z92" s="116"/>
+      <c r="AA92" s="117"/>
       <c r="AB92" s="56" t="s">
         <v>853</v>
       </c>
@@ -24302,7 +24303,7 @@
       <c r="Y93" s="80"/>
       <c r="Z93" s="80"/>
       <c r="AA93" s="55" t="str">
-        <f t="shared" ref="AA93:AA94" si="26">IF(SUMPRODUCT(--(C93:Z93&lt;&gt;""))=0,"",SUM(C93:Z93))</f>
+        <f t="shared" ref="AA93:AA94" si="24">IF(SUMPRODUCT(--(C93:Z93&lt;&gt;""))=0,"",SUM(C93:Z93))</f>
         <v/>
       </c>
       <c r="AB93" s="57">
@@ -24343,7 +24344,7 @@
     </row>
     <row r="94" spans="1:61" ht="12.75" thickBot="1">
       <c r="A94" s="54">
-        <f t="shared" ref="A94" si="27">IF(ISERROR((A93+1)),"",(A93+1))</f>
+        <f t="shared" ref="A94" si="25">IF(ISERROR((A93+1)),"",(A93+1))</f>
         <v>65</v>
       </c>
       <c r="B94" s="65" t="s">
@@ -24374,7 +24375,7 @@
       <c r="Y94" s="69"/>
       <c r="Z94" s="69"/>
       <c r="AA94" s="55" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AB94" s="57">
@@ -24417,34 +24418,34 @@
       <c r="A95" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="130" t="s">
+      <c r="B95" s="115" t="s">
         <v>887</v>
       </c>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
-      <c r="F95" s="131"/>
-      <c r="G95" s="131"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="131"/>
-      <c r="J95" s="131"/>
-      <c r="K95" s="131"/>
-      <c r="L95" s="131"/>
-      <c r="M95" s="131"/>
-      <c r="N95" s="131"/>
-      <c r="O95" s="131"/>
-      <c r="P95" s="131"/>
-      <c r="Q95" s="131"/>
-      <c r="R95" s="131"/>
-      <c r="S95" s="131"/>
-      <c r="T95" s="131"/>
-      <c r="U95" s="131"/>
-      <c r="V95" s="131"/>
-      <c r="W95" s="131"/>
-      <c r="X95" s="131"/>
-      <c r="Y95" s="131"/>
-      <c r="Z95" s="131"/>
-      <c r="AA95" s="132"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="116"/>
+      <c r="R95" s="116"/>
+      <c r="S95" s="116"/>
+      <c r="T95" s="116"/>
+      <c r="U95" s="116"/>
+      <c r="V95" s="116"/>
+      <c r="W95" s="116"/>
+      <c r="X95" s="116"/>
+      <c r="Y95" s="116"/>
+      <c r="Z95" s="116"/>
+      <c r="AA95" s="117"/>
       <c r="AB95" s="56" t="s">
         <v>1</v>
       </c>
@@ -24554,7 +24555,7 @@
     </row>
     <row r="97" spans="1:80">
       <c r="A97" s="54">
-        <f t="shared" ref="A97:A99" si="28">IF(ISERROR((A96+1)),"",(A96+1))</f>
+        <f t="shared" ref="A97:A99" si="26">IF(ISERROR((A96+1)),"",(A96+1))</f>
         <v>67</v>
       </c>
       <c r="B97" s="78" t="s">
@@ -24626,7 +24627,7 @@
     </row>
     <row r="98" spans="1:80">
       <c r="A98" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>68</v>
       </c>
       <c r="B98" s="78" t="s">
@@ -24698,7 +24699,7 @@
     </row>
     <row r="99" spans="1:80">
       <c r="A99" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>69</v>
       </c>
       <c r="B99" s="78" t="s">
@@ -24772,34 +24773,34 @@
       <c r="A100" s="54" t="s">
         <v>889</v>
       </c>
-      <c r="B100" s="130" t="s">
+      <c r="B100" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="131"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="131"/>
-      <c r="H100" s="131"/>
-      <c r="I100" s="131"/>
-      <c r="J100" s="131"/>
-      <c r="K100" s="131"/>
-      <c r="L100" s="131"/>
-      <c r="M100" s="131"/>
-      <c r="N100" s="131"/>
-      <c r="O100" s="131"/>
-      <c r="P100" s="131"/>
-      <c r="Q100" s="131"/>
-      <c r="R100" s="131"/>
-      <c r="S100" s="131"/>
-      <c r="T100" s="131"/>
-      <c r="U100" s="131"/>
-      <c r="V100" s="131"/>
-      <c r="W100" s="131"/>
-      <c r="X100" s="131"/>
-      <c r="Y100" s="131"/>
-      <c r="Z100" s="131"/>
-      <c r="AA100" s="132"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116"/>
+      <c r="J100" s="116"/>
+      <c r="K100" s="116"/>
+      <c r="L100" s="116"/>
+      <c r="M100" s="116"/>
+      <c r="N100" s="116"/>
+      <c r="O100" s="116"/>
+      <c r="P100" s="116"/>
+      <c r="Q100" s="116"/>
+      <c r="R100" s="116"/>
+      <c r="S100" s="116"/>
+      <c r="T100" s="116"/>
+      <c r="U100" s="116"/>
+      <c r="V100" s="116"/>
+      <c r="W100" s="116"/>
+      <c r="X100" s="116"/>
+      <c r="Y100" s="116"/>
+      <c r="Z100" s="116"/>
+      <c r="AA100" s="117"/>
       <c r="AB100" s="57" t="s">
         <v>889</v>
       </c>
@@ -24841,33 +24842,33 @@
       <c r="B101" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="144" t="s">
+      <c r="C101" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="145"/>
-      <c r="E101" s="145"/>
-      <c r="F101" s="145"/>
-      <c r="G101" s="145"/>
-      <c r="H101" s="145"/>
-      <c r="I101" s="145"/>
-      <c r="J101" s="145"/>
-      <c r="K101" s="145"/>
-      <c r="L101" s="145"/>
-      <c r="M101" s="145"/>
-      <c r="N101" s="145"/>
-      <c r="O101" s="145"/>
-      <c r="P101" s="145"/>
-      <c r="Q101" s="145"/>
-      <c r="R101" s="145"/>
-      <c r="S101" s="145"/>
-      <c r="T101" s="145"/>
-      <c r="U101" s="145"/>
-      <c r="V101" s="145"/>
-      <c r="W101" s="145"/>
-      <c r="X101" s="145"/>
-      <c r="Y101" s="145"/>
-      <c r="Z101" s="145"/>
-      <c r="AA101" s="146"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="124"/>
+      <c r="J101" s="124"/>
+      <c r="K101" s="124"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="124"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="124"/>
+      <c r="P101" s="124"/>
+      <c r="Q101" s="124"/>
+      <c r="R101" s="124"/>
+      <c r="S101" s="124"/>
+      <c r="T101" s="124"/>
+      <c r="U101" s="124"/>
+      <c r="V101" s="124"/>
+      <c r="W101" s="124"/>
+      <c r="X101" s="124"/>
+      <c r="Y101" s="124"/>
+      <c r="Z101" s="124"/>
+      <c r="AA101" s="125"/>
       <c r="AB101" s="56"/>
       <c r="AC101" s="107"/>
       <c r="AE101" s="27"/>
@@ -24904,31 +24905,31 @@
     </row>
     <row r="102" spans="1:80" ht="12.75" thickBot="1">
       <c r="B102" s="63"/>
-      <c r="C102" s="139"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-      <c r="H102" s="140"/>
-      <c r="I102" s="140"/>
-      <c r="J102" s="140"/>
-      <c r="K102" s="140"/>
-      <c r="L102" s="140"/>
-      <c r="M102" s="140"/>
-      <c r="N102" s="140"/>
-      <c r="O102" s="140"/>
-      <c r="P102" s="140"/>
-      <c r="Q102" s="140"/>
-      <c r="R102" s="140"/>
-      <c r="S102" s="140"/>
-      <c r="T102" s="140"/>
-      <c r="U102" s="140"/>
-      <c r="V102" s="140"/>
-      <c r="W102" s="140"/>
-      <c r="X102" s="140"/>
-      <c r="Y102" s="140"/>
-      <c r="Z102" s="140"/>
-      <c r="AA102" s="141"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119"/>
+      <c r="I102" s="119"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="119"/>
+      <c r="N102" s="119"/>
+      <c r="O102" s="119"/>
+      <c r="P102" s="119"/>
+      <c r="Q102" s="119"/>
+      <c r="R102" s="119"/>
+      <c r="S102" s="119"/>
+      <c r="T102" s="119"/>
+      <c r="U102" s="119"/>
+      <c r="V102" s="119"/>
+      <c r="W102" s="119"/>
+      <c r="X102" s="119"/>
+      <c r="Y102" s="119"/>
+      <c r="Z102" s="119"/>
+      <c r="AA102" s="120"/>
       <c r="AB102" s="60"/>
       <c r="AE102" s="27"/>
       <c r="AF102" s="27"/>
@@ -24964,31 +24965,8 @@
       <c r="CB102" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dXpAtJzjE+Sq8ieP/DxLY8o9BMN+hq0alGTSPReHOnRI0hKhYPoYD2hE58AC/q3IvlOffqhyO/OVpgmNkkHyZA==" saltValue="GJzUOCPhq+UC4EdHeUtmsw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8sL4Kjk1BNj6WlAvmBLdLWzWqFMurS+ezVgezLORkrQyAs+8JTRcpBU/aqLLzVBLFip/UyJatgZAN5rBN8FqCg==" saltValue="/S9bYZXt6Obt6tc9kujCgQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="AC65:AC67"/>
-    <mergeCell ref="AC68:AC76"/>
-    <mergeCell ref="B9:AA9"/>
-    <mergeCell ref="B17:AA17"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="C65:AA65"/>
-    <mergeCell ref="B79:AA79"/>
-    <mergeCell ref="C101:AA101"/>
-    <mergeCell ref="C102:AA102"/>
-    <mergeCell ref="B59:AA59"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="B53:AA53"/>
-    <mergeCell ref="B83:AA83"/>
-    <mergeCell ref="B76:AA76"/>
-    <mergeCell ref="B92:AA92"/>
-    <mergeCell ref="B95:AA95"/>
-    <mergeCell ref="B100:AA100"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:W5"/>
     <mergeCell ref="C6:AA6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:D7"/>
@@ -25004,6 +24982,29 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="B79:AA79"/>
+    <mergeCell ref="C101:AA101"/>
+    <mergeCell ref="C102:AA102"/>
+    <mergeCell ref="B59:AA59"/>
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="B53:AA53"/>
+    <mergeCell ref="B83:AA83"/>
+    <mergeCell ref="B76:AA76"/>
+    <mergeCell ref="B92:AA92"/>
+    <mergeCell ref="B95:AA95"/>
+    <mergeCell ref="B100:AA100"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="AC68:AC76"/>
+    <mergeCell ref="B9:AA9"/>
+    <mergeCell ref="B17:AA17"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="C65:AA65"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:Z18">
     <cfRule type="notContainsBlanks" dxfId="519" priority="445">
@@ -25015,7 +25016,7 @@
       <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA18:AA20 AA22:AA32 AA10:AA16 AA60:AA64 AA49:AA52">
+  <conditionalFormatting sqref="AA18:AA20 AA22:AA32 AA10:AA16 AA60:AA64">
     <cfRule type="notContainsBlanks" dxfId="517" priority="446">
       <formula>LEN(TRIM(AA10))&gt;0</formula>
     </cfRule>
@@ -25751,7 +25752,7 @@
       <formula>LEN(TRIM(AA39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AA44 AA46:AA47">
+  <conditionalFormatting sqref="AA42:AA44 AA46:AA52">
     <cfRule type="notContainsBlanks" dxfId="369" priority="156">
       <formula>LEN(TRIM(AA42))&gt;0</formula>
     </cfRule>
@@ -25907,11 +25908,6 @@
       <formula>LEN(TRIM(J70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA48">
-    <cfRule type="notContainsBlanks" dxfId="337" priority="113">
-      <formula>LEN(TRIM(AA48))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C48:Z48">
     <cfRule type="notContainsBlanks" dxfId="336" priority="112">
       <formula>LEN(TRIM(C48))&gt;0</formula>
@@ -26238,7 +26234,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non Numeric Character" error="Enter Numbers only" sqref="AA18:AA20 AA22:AA32 AA10:AA16 AA84:AA90 AA34:AA35 AA54:AA58 AA96:AA99 AA80:AA82 AA77:AA78 C82:Z82 C86:Z86 AA60:AA64 C91:AA91 AA93:AA94 AA37:AA52 AA66:AA75"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non Numeric Character" error="Enter Numbers only" sqref="AA18:AA20 AA22:AA32 AA10:AA16 AA84:AA90 AA34:AA35 AA54:AA58 AA96:AA99 AA80:AA82 AA77:AA78 C82:Z82 C86:Z86 AA60:AA64 C91:AA91 AA93:AA94 AA66:AA75 AA37:AA52"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Service Delivery Point (SDP):" prompt="Click arrow to select_x000a_" sqref="C6">
       <formula1>"PMTCT,CCC"</formula1>
     </dataValidation>
@@ -26502,7 +26498,7 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="139" t="s">
         <v>902</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -26593,7 +26589,7 @@
       <c r="BI2" s="74"/>
     </row>
     <row r="3" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A3" s="112"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -26622,15 +26618,15 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:80">
-      <c r="A4" s="112"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -26649,42 +26645,42 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="38"/>
-      <c r="X4" s="116" t="s">
+      <c r="X4" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="117"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="145"/>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:80" ht="12.75" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="118" t="str">
+      <c r="C5" s="146" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149" t="s">
         <v>806</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="123"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="151"/>
       <c r="X5" s="41" t="s">
         <v>4</v>
       </c>
@@ -26701,88 +26697,88 @@
       <c r="B6" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="129" t="s">
         <v>854</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
     </row>
     <row r="7" spans="1:80" s="48" customFormat="1">
       <c r="A7" s="135" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="136"/>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="126" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="126" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="126" t="s">
+      <c r="J7" s="128"/>
+      <c r="K7" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="126" t="s">
+      <c r="L7" s="128"/>
+      <c r="M7" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="126" t="s">
+      <c r="N7" s="134"/>
+      <c r="O7" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="126" t="s">
+      <c r="P7" s="128"/>
+      <c r="Q7" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="133"/>
-      <c r="S7" s="125" t="s">
+      <c r="R7" s="134"/>
+      <c r="S7" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="T7" s="125"/>
-      <c r="U7" s="126" t="s">
+      <c r="T7" s="130"/>
+      <c r="U7" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="V7" s="134"/>
-      <c r="W7" s="125" t="s">
+      <c r="V7" s="128"/>
+      <c r="W7" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125" t="s">
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="142" t="s">
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="121" t="s">
         <v>216</v>
       </c>
       <c r="AB7" s="46"/>
@@ -26914,7 +26910,7 @@
       <c r="Z8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="143"/>
+      <c r="AA8" s="122"/>
       <c r="AB8" s="46"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="47"/>
@@ -26973,34 +26969,34 @@
       <c r="A9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="129"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="133"/>
       <c r="AB9" s="53" t="s">
         <v>207</v>
       </c>
@@ -27351,34 +27347,34 @@
     </row>
     <row r="17" spans="1:29" s="59" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="132"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="117"/>
       <c r="AB17" s="58" t="s">
         <v>18</v>
       </c>
@@ -27508,34 +27504,34 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="54"/>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="132"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="117"/>
       <c r="AB21" s="60" t="s">
         <v>17</v>
       </c>
@@ -27993,34 +27989,34 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="54"/>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="132"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="117"/>
       <c r="AB33" s="60" t="s">
         <v>15</v>
       </c>
@@ -28109,34 +28105,34 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="54"/>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="115" t="s">
         <v>757</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="131"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="131"/>
-      <c r="X36" s="131"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="131"/>
-      <c r="AA36" s="132"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="117"/>
       <c r="AB36" s="56" t="s">
         <v>758</v>
       </c>
@@ -28840,34 +28836,34 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="54"/>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="115" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="131"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
-      <c r="S53" s="131"/>
-      <c r="T53" s="131"/>
-      <c r="U53" s="131"/>
-      <c r="V53" s="131"/>
-      <c r="W53" s="131"/>
-      <c r="X53" s="131"/>
-      <c r="Y53" s="131"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="132"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="116"/>
+      <c r="Z53" s="116"/>
+      <c r="AA53" s="117"/>
       <c r="AB53" s="60" t="s">
         <v>0</v>
       </c>
@@ -29078,34 +29074,34 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="54"/>
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="115" t="s">
         <v>800</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
-      <c r="O59" s="131"/>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="131"/>
-      <c r="R59" s="131"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="131"/>
-      <c r="U59" s="131"/>
-      <c r="V59" s="131"/>
-      <c r="W59" s="131"/>
-      <c r="X59" s="131"/>
-      <c r="Y59" s="131"/>
-      <c r="Z59" s="131"/>
-      <c r="AA59" s="132"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="116"/>
+      <c r="T59" s="116"/>
+      <c r="U59" s="116"/>
+      <c r="V59" s="116"/>
+      <c r="W59" s="116"/>
+      <c r="X59" s="116"/>
+      <c r="Y59" s="116"/>
+      <c r="Z59" s="116"/>
+      <c r="AA59" s="117"/>
       <c r="AB59" s="56" t="s">
         <v>801</v>
       </c>
@@ -29314,38 +29310,38 @@
     </row>
     <row r="65" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A65" s="54"/>
-      <c r="B65" s="156" t="s">
+      <c r="B65" s="152" t="s">
         <v>809</v>
       </c>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="131"/>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="131"/>
-      <c r="R65" s="131"/>
-      <c r="S65" s="131"/>
-      <c r="T65" s="131"/>
-      <c r="U65" s="131"/>
-      <c r="V65" s="131"/>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="131"/>
-      <c r="Z65" s="131"/>
-      <c r="AA65" s="132"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="116"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
+      <c r="Z65" s="116"/>
+      <c r="AA65" s="117"/>
       <c r="AB65" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="AC65" s="148" t="str">
+      <c r="AC65" s="111" t="str">
         <f>CONCATENATE(AD65)</f>
         <v/>
       </c>
@@ -29392,7 +29388,7 @@
       <c r="AB66" s="57">
         <v>50</v>
       </c>
-      <c r="AC66" s="148"/>
+      <c r="AC66" s="111"/>
     </row>
     <row r="67" spans="1:30" hidden="1">
       <c r="A67" s="54">
@@ -29433,7 +29429,7 @@
       <c r="AB67" s="57">
         <v>94</v>
       </c>
-      <c r="AC67" s="148"/>
+      <c r="AC67" s="111"/>
     </row>
     <row r="68" spans="1:30" hidden="1">
       <c r="A68" s="54">
@@ -29792,34 +29788,34 @@
     </row>
     <row r="76" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="54"/>
-      <c r="B76" s="147" t="s">
+      <c r="B76" s="126" t="s">
         <v>820</v>
       </c>
-      <c r="C76" s="131"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="131"/>
-      <c r="G76" s="131"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
-      <c r="O76" s="131"/>
-      <c r="P76" s="131"/>
-      <c r="Q76" s="131"/>
-      <c r="R76" s="131"/>
-      <c r="S76" s="131"/>
-      <c r="T76" s="131"/>
-      <c r="U76" s="131"/>
-      <c r="V76" s="131"/>
-      <c r="W76" s="131"/>
-      <c r="X76" s="131"/>
-      <c r="Y76" s="131"/>
-      <c r="Z76" s="131"/>
-      <c r="AA76" s="132"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="116"/>
+      <c r="N76" s="116"/>
+      <c r="O76" s="116"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
+      <c r="R76" s="116"/>
+      <c r="S76" s="116"/>
+      <c r="T76" s="116"/>
+      <c r="U76" s="116"/>
+      <c r="V76" s="116"/>
+      <c r="W76" s="116"/>
+      <c r="X76" s="116"/>
+      <c r="Y76" s="116"/>
+      <c r="Z76" s="116"/>
+      <c r="AA76" s="117"/>
       <c r="AB76" s="56" t="s">
         <v>819</v>
       </c>
@@ -29907,34 +29903,34 @@
     </row>
     <row r="79" spans="1:30" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="54"/>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="115" t="s">
         <v>817</v>
       </c>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="131"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="131"/>
-      <c r="P79" s="131"/>
-      <c r="Q79" s="131"/>
-      <c r="R79" s="131"/>
-      <c r="S79" s="131"/>
-      <c r="T79" s="131"/>
-      <c r="U79" s="131"/>
-      <c r="V79" s="131"/>
-      <c r="W79" s="131"/>
-      <c r="X79" s="131"/>
-      <c r="Y79" s="131"/>
-      <c r="Z79" s="131"/>
-      <c r="AA79" s="132"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116"/>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
+      <c r="V79" s="116"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="116"/>
+      <c r="Z79" s="116"/>
+      <c r="AA79" s="117"/>
       <c r="AB79" s="56" t="s">
         <v>818</v>
       </c>
@@ -30138,34 +30134,34 @@
       <c r="A83" s="54" t="s">
         <v>853</v>
       </c>
-      <c r="B83" s="130" t="s">
+      <c r="B83" s="115" t="s">
         <v>865</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="131"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
-      <c r="O83" s="131"/>
-      <c r="P83" s="131"/>
-      <c r="Q83" s="131"/>
-      <c r="R83" s="131"/>
-      <c r="S83" s="131"/>
-      <c r="T83" s="131"/>
-      <c r="U83" s="131"/>
-      <c r="V83" s="131"/>
-      <c r="W83" s="131"/>
-      <c r="X83" s="131"/>
-      <c r="Y83" s="131"/>
-      <c r="Z83" s="131"/>
-      <c r="AA83" s="132"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="116"/>
+      <c r="N83" s="116"/>
+      <c r="O83" s="116"/>
+      <c r="P83" s="116"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="116"/>
+      <c r="S83" s="116"/>
+      <c r="T83" s="116"/>
+      <c r="U83" s="116"/>
+      <c r="V83" s="116"/>
+      <c r="W83" s="116"/>
+      <c r="X83" s="116"/>
+      <c r="Y83" s="116"/>
+      <c r="Z83" s="116"/>
+      <c r="AA83" s="117"/>
       <c r="AB83" s="56" t="s">
         <v>853</v>
       </c>
@@ -30500,34 +30496,34 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="54"/>
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="115" t="s">
         <v>879</v>
       </c>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="131"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="131"/>
-      <c r="J92" s="131"/>
-      <c r="K92" s="131"/>
-      <c r="L92" s="131"/>
-      <c r="M92" s="131"/>
-      <c r="N92" s="131"/>
-      <c r="O92" s="131"/>
-      <c r="P92" s="131"/>
-      <c r="Q92" s="131"/>
-      <c r="R92" s="131"/>
-      <c r="S92" s="131"/>
-      <c r="T92" s="131"/>
-      <c r="U92" s="131"/>
-      <c r="V92" s="131"/>
-      <c r="W92" s="131"/>
-      <c r="X92" s="131"/>
-      <c r="Y92" s="131"/>
-      <c r="Z92" s="131"/>
-      <c r="AA92" s="132"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="116"/>
+      <c r="I92" s="116"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="116"/>
+      <c r="M92" s="116"/>
+      <c r="N92" s="116"/>
+      <c r="O92" s="116"/>
+      <c r="P92" s="116"/>
+      <c r="Q92" s="116"/>
+      <c r="R92" s="116"/>
+      <c r="S92" s="116"/>
+      <c r="T92" s="116"/>
+      <c r="U92" s="116"/>
+      <c r="V92" s="116"/>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Y92" s="116"/>
+      <c r="Z92" s="116"/>
+      <c r="AA92" s="117"/>
       <c r="AB92" s="56" t="s">
         <v>853</v>
       </c>
@@ -30618,34 +30614,34 @@
       <c r="A95" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="130" t="s">
+      <c r="B95" s="115" t="s">
         <v>887</v>
       </c>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
-      <c r="F95" s="131"/>
-      <c r="G95" s="131"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="131"/>
-      <c r="J95" s="131"/>
-      <c r="K95" s="131"/>
-      <c r="L95" s="131"/>
-      <c r="M95" s="131"/>
-      <c r="N95" s="131"/>
-      <c r="O95" s="131"/>
-      <c r="P95" s="131"/>
-      <c r="Q95" s="131"/>
-      <c r="R95" s="131"/>
-      <c r="S95" s="131"/>
-      <c r="T95" s="131"/>
-      <c r="U95" s="131"/>
-      <c r="V95" s="131"/>
-      <c r="W95" s="131"/>
-      <c r="X95" s="131"/>
-      <c r="Y95" s="131"/>
-      <c r="Z95" s="131"/>
-      <c r="AA95" s="132"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="116"/>
+      <c r="R95" s="116"/>
+      <c r="S95" s="116"/>
+      <c r="T95" s="116"/>
+      <c r="U95" s="116"/>
+      <c r="V95" s="116"/>
+      <c r="W95" s="116"/>
+      <c r="X95" s="116"/>
+      <c r="Y95" s="116"/>
+      <c r="Z95" s="116"/>
+      <c r="AA95" s="117"/>
       <c r="AB95" s="56" t="s">
         <v>1</v>
       </c>
@@ -30816,34 +30812,34 @@
     </row>
     <row r="100" spans="1:80" ht="15.75" hidden="1" thickBot="1">
       <c r="A100" s="54"/>
-      <c r="B100" s="147" t="s">
+      <c r="B100" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="131"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="131"/>
-      <c r="H100" s="131"/>
-      <c r="I100" s="131"/>
-      <c r="J100" s="131"/>
-      <c r="K100" s="131"/>
-      <c r="L100" s="131"/>
-      <c r="M100" s="131"/>
-      <c r="N100" s="131"/>
-      <c r="O100" s="131"/>
-      <c r="P100" s="131"/>
-      <c r="Q100" s="131"/>
-      <c r="R100" s="131"/>
-      <c r="S100" s="131"/>
-      <c r="T100" s="131"/>
-      <c r="U100" s="131"/>
-      <c r="V100" s="131"/>
-      <c r="W100" s="131"/>
-      <c r="X100" s="131"/>
-      <c r="Y100" s="131"/>
-      <c r="Z100" s="131"/>
-      <c r="AA100" s="132"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116"/>
+      <c r="J100" s="116"/>
+      <c r="K100" s="116"/>
+      <c r="L100" s="116"/>
+      <c r="M100" s="116"/>
+      <c r="N100" s="116"/>
+      <c r="O100" s="116"/>
+      <c r="P100" s="116"/>
+      <c r="Q100" s="116"/>
+      <c r="R100" s="116"/>
+      <c r="S100" s="116"/>
+      <c r="T100" s="116"/>
+      <c r="U100" s="116"/>
+      <c r="V100" s="116"/>
+      <c r="W100" s="116"/>
+      <c r="X100" s="116"/>
+      <c r="Y100" s="116"/>
+      <c r="Z100" s="116"/>
+      <c r="AA100" s="117"/>
       <c r="AB100" s="57" t="s">
         <v>889</v>
       </c>
@@ -30854,91 +30850,69 @@
       <c r="B101" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="144" t="s">
+      <c r="C101" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="145"/>
-      <c r="E101" s="145"/>
-      <c r="F101" s="145"/>
-      <c r="G101" s="145"/>
-      <c r="H101" s="145"/>
-      <c r="I101" s="145"/>
-      <c r="J101" s="145"/>
-      <c r="K101" s="145"/>
-      <c r="L101" s="145"/>
-      <c r="M101" s="145"/>
-      <c r="N101" s="145"/>
-      <c r="O101" s="145"/>
-      <c r="P101" s="145"/>
-      <c r="Q101" s="145"/>
-      <c r="R101" s="145"/>
-      <c r="S101" s="145"/>
-      <c r="T101" s="145"/>
-      <c r="U101" s="145"/>
-      <c r="V101" s="145"/>
-      <c r="W101" s="145"/>
-      <c r="X101" s="145"/>
-      <c r="Y101" s="145"/>
-      <c r="Z101" s="145"/>
-      <c r="AA101" s="146"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="124"/>
+      <c r="J101" s="124"/>
+      <c r="K101" s="124"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="124"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="124"/>
+      <c r="P101" s="124"/>
+      <c r="Q101" s="124"/>
+      <c r="R101" s="124"/>
+      <c r="S101" s="124"/>
+      <c r="T101" s="124"/>
+      <c r="U101" s="124"/>
+      <c r="V101" s="124"/>
+      <c r="W101" s="124"/>
+      <c r="X101" s="124"/>
+      <c r="Y101" s="124"/>
+      <c r="Z101" s="124"/>
+      <c r="AA101" s="125"/>
       <c r="AB101" s="56"/>
       <c r="AC101" s="107"/>
     </row>
     <row r="102" spans="1:80" ht="12.75" thickBot="1">
       <c r="B102" s="63"/>
-      <c r="C102" s="139"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-      <c r="H102" s="140"/>
-      <c r="I102" s="140"/>
-      <c r="J102" s="140"/>
-      <c r="K102" s="140"/>
-      <c r="L102" s="140"/>
-      <c r="M102" s="140"/>
-      <c r="N102" s="140"/>
-      <c r="O102" s="140"/>
-      <c r="P102" s="140"/>
-      <c r="Q102" s="140"/>
-      <c r="R102" s="140"/>
-      <c r="S102" s="140"/>
-      <c r="T102" s="140"/>
-      <c r="U102" s="140"/>
-      <c r="V102" s="140"/>
-      <c r="W102" s="140"/>
-      <c r="X102" s="140"/>
-      <c r="Y102" s="140"/>
-      <c r="Z102" s="140"/>
-      <c r="AA102" s="141"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119"/>
+      <c r="I102" s="119"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="119"/>
+      <c r="N102" s="119"/>
+      <c r="O102" s="119"/>
+      <c r="P102" s="119"/>
+      <c r="Q102" s="119"/>
+      <c r="R102" s="119"/>
+      <c r="S102" s="119"/>
+      <c r="T102" s="119"/>
+      <c r="U102" s="119"/>
+      <c r="V102" s="119"/>
+      <c r="W102" s="119"/>
+      <c r="X102" s="119"/>
+      <c r="Y102" s="119"/>
+      <c r="Z102" s="119"/>
+      <c r="AA102" s="120"/>
       <c r="AB102" s="60"/>
       <c r="CB102" s="69"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eYmxG1JUFLDLFFTyzsrDmX2n4XX6pAmuYG5uzhy7mlWyAC8a1+hO1Og7A9vbUYYgWPrxrXdSA0T5WRXptlfb+Q==" saltValue="o+I/EMQWuUoMDJ7qJJ88Cg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="AC65:AC67"/>
-    <mergeCell ref="AC68:AC76"/>
-    <mergeCell ref="B17:AA17"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B83:AA83"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="C101:AA101"/>
-    <mergeCell ref="C102:AA102"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="B53:AA53"/>
-    <mergeCell ref="B59:AA59"/>
-    <mergeCell ref="B65:AA65"/>
-    <mergeCell ref="B76:AA76"/>
-    <mergeCell ref="B79:AA79"/>
-    <mergeCell ref="B92:AA92"/>
-    <mergeCell ref="B95:AA95"/>
-    <mergeCell ref="B100:AA100"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="B9:AA9"/>
@@ -30955,6 +30929,28 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="C101:AA101"/>
+    <mergeCell ref="C102:AA102"/>
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="B53:AA53"/>
+    <mergeCell ref="B59:AA59"/>
+    <mergeCell ref="B65:AA65"/>
+    <mergeCell ref="B76:AA76"/>
+    <mergeCell ref="B79:AA79"/>
+    <mergeCell ref="B92:AA92"/>
+    <mergeCell ref="B95:AA95"/>
+    <mergeCell ref="B100:AA100"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="AC68:AC76"/>
+    <mergeCell ref="B17:AA17"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B83:AA83"/>
+    <mergeCell ref="B33:AA33"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:Z18">
     <cfRule type="notContainsBlanks" dxfId="267" priority="300">
@@ -43373,12 +43369,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43616,28 +43612,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -43663,9 +43649,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>